--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J596"/>
+  <dimension ref="A1:J612"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="D602" sqref="D602"/>
@@ -18944,13 +18944,564 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="6" t="n"/>
+      <c r="A595" s="6" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
       <c r="B595" s="6" t="n"/>
-      <c r="H595" s="6" t="n"/>
-      <c r="J595" s="6" t="n"/>
+      <c r="C595" t="n">
+        <v>1933.349975585938</v>
+      </c>
+      <c r="D595" t="n">
+        <v>1751.849975585938</v>
+      </c>
+      <c r="E595" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1857.849975585938</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1726.550048828125</v>
+      </c>
+      <c r="H595" s="6" t="n">
+        <v>37876.40014648438</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0.00363547585698216</v>
+      </c>
+      <c r="J595" s="6" t="n">
+        <v>178.9686390577944</v>
+      </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
       <c r="B596" s="6" t="n"/>
+      <c r="C596" t="n">
+        <v>1943.699951171875</v>
+      </c>
+      <c r="D596" t="n">
+        <v>1753.25</v>
+      </c>
+      <c r="E596" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1815.150024414062</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1772.25</v>
+      </c>
+      <c r="H596" t="n">
+        <v>37943.19958496094</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.001763616347335551</v>
+      </c>
+      <c r="J596" t="n">
+        <v>179.2842710752971</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D597" t="n">
+        <v>1806.650024414062</v>
+      </c>
+      <c r="E597" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F597" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="H597" t="n">
+        <v>38025.74987792969</v>
+      </c>
+      <c r="I597" t="n">
+        <v>0.002175628146063607</v>
+      </c>
+      <c r="J597" t="n">
+        <v>179.674326981595</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D598" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="E598" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="H598" t="n">
+        <v>37895.55029296875</v>
+      </c>
+      <c r="I598" t="n">
+        <v>-0.003423984678248408</v>
+      </c>
+      <c r="J598" t="n">
+        <v>179.0591248389355</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D599" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="E599" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F599" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="H599" t="n">
+        <v>37618.74926757812</v>
+      </c>
+      <c r="I599" t="n">
+        <v>-0.007304314708473397</v>
+      </c>
+      <c r="J599" t="n">
+        <v>177.7512206396881</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D600" t="n">
+        <v>1790.550048828125</v>
+      </c>
+      <c r="E600" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="H600" t="n">
+        <v>37761.05065917969</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.003782725220059497</v>
+      </c>
+      <c r="J600" t="n">
+        <v>178.4236046648982</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1756.099975585938</v>
+      </c>
+      <c r="E601" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F601" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H601" t="n">
+        <v>37713.70007324219</v>
+      </c>
+      <c r="I601" t="n">
+        <v>-0.001253953084220899</v>
+      </c>
+      <c r="J601" t="n">
+        <v>178.1998698355308</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D602" t="n">
+        <v>1746.75</v>
+      </c>
+      <c r="E602" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F602" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="H602" t="n">
+        <v>37455.65051269531</v>
+      </c>
+      <c r="I602" t="n">
+        <v>-0.006842329446480399</v>
+      </c>
+      <c r="J602" t="n">
+        <v>176.9805676187962</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D603" t="n">
+        <v>1779.099975585938</v>
+      </c>
+      <c r="E603" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F603" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="H603" t="n">
+        <v>37856.65014648438</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0.01070598503296977</v>
+      </c>
+      <c r="J603" t="n">
+        <v>178.8753189268495</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D604" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="E604" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F604" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="H604" t="n">
+        <v>37910.79992675781</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0.001430390170918655</v>
+      </c>
+      <c r="J604" t="n">
+        <v>179.1311804248624</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D605" t="n">
+        <v>1807.599975585938</v>
+      </c>
+      <c r="E605" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F605" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="H605" t="n">
+        <v>38550.34973144531</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0.01686985782212682</v>
+      </c>
+      <c r="J605" t="n">
+        <v>182.1530979701396</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D606" t="n">
+        <v>1812.800048828125</v>
+      </c>
+      <c r="E606" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="H606" t="n">
+        <v>38552.5498046875</v>
+      </c>
+      <c r="I606" t="n">
+        <v>5.707012407186833e-05</v>
+      </c>
+      <c r="J606" t="n">
+        <v>182.1634934700408</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D607" t="n">
+        <v>1811.849975585938</v>
+      </c>
+      <c r="E607" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="H607" t="n">
+        <v>38385.89990234375</v>
+      </c>
+      <c r="I607" t="n">
+        <v>-0.004322668751821118</v>
+      </c>
+      <c r="J607" t="n">
+        <v>181.3760610290953</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D608" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="E608" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="H608" t="n">
+        <v>38346.90075683594</v>
+      </c>
+      <c r="I608" t="n">
+        <v>-0.001015975803798501</v>
+      </c>
+      <c r="J608" t="n">
+        <v>181.1917873397015</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D609" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="E609" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="H609" t="n">
+        <v>37454.75048828125</v>
+      </c>
+      <c r="I609" t="n">
+        <v>-0.023265250931541</v>
+      </c>
+      <c r="J609" t="n">
+        <v>176.9763149405089</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D610" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E610" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="H610" t="n">
+        <v>37317.94946289062</v>
+      </c>
+      <c r="I610" t="n">
+        <v>-0.003652434567236724</v>
+      </c>
+      <c r="J610" t="n">
+        <v>176.329920530238</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E611" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="H611" t="n">
+        <v>38001.24975585938</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0.01831023147850691</v>
+      </c>
+      <c r="J611" t="n">
+        <v>179.5585621917334</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1752.800048828125</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="H612" t="n">
+        <v>37915.79968261719</v>
+      </c>
+      <c r="I612" t="n">
+        <v>-0.002248612184892999</v>
+      </c>
+      <c r="J612" t="n">
+        <v>179.1548046208872</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,6 +63,9 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +88,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -96,6 +99,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J612"/>
+  <dimension ref="A1:J636"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="D602" sqref="D602"/>
@@ -19503,6 +19507,757 @@
         <v>179.1548046208872</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="8" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B613" s="8" t="inlineStr">
+        <is>
+          <t>Stocks</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>LTIM.NS</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>TATATECH.NS</t>
+        </is>
+      </c>
+      <c r="H613" s="8" t="inlineStr">
+        <is>
+          <t>Basket Value</t>
+        </is>
+      </c>
+      <c r="J613" s="8" t="inlineStr">
+        <is>
+          <t>NAV</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="B614" s="8" t="inlineStr">
+        <is>
+          <t>Quantities</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>5</v>
+      </c>
+      <c r="D614" t="n">
+        <v>2</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1</v>
+      </c>
+      <c r="F614" t="n">
+        <v>12</v>
+      </c>
+      <c r="G614" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>1876.150024414062</v>
+      </c>
+      <c r="D615" t="n">
+        <v>4502.4501953125</v>
+      </c>
+      <c r="E615" t="n">
+        <v>5739.9501953125</v>
+      </c>
+      <c r="F615" t="n">
+        <v>520</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1048.650024414062</v>
+      </c>
+      <c r="H615" t="n">
+        <v>35608.85083007812</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>179.1548046208872</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>1900.099975585938</v>
+      </c>
+      <c r="D616" t="n">
+        <v>4497.14990234375</v>
+      </c>
+      <c r="E616" t="n">
+        <v>5751.5498046875</v>
+      </c>
+      <c r="F616" t="n">
+        <v>517.1500244140625</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1078.800048828125</v>
+      </c>
+      <c r="H616" t="n">
+        <v>35846.15002441406</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.006664050897578962</v>
+      </c>
+      <c r="J616" t="n">
+        <v>180.3487013574266</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1939.099975585938</v>
+      </c>
+      <c r="D617" t="n">
+        <v>4506.0498046875</v>
+      </c>
+      <c r="E617" t="n">
+        <v>6127.5498046875</v>
+      </c>
+      <c r="F617" t="n">
+        <v>534.5999755859375</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="H617" t="n">
+        <v>36556.84924316406</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0.01982637516904765</v>
+      </c>
+      <c r="J617" t="n">
+        <v>183.9243623717895</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1933.349975585938</v>
+      </c>
+      <c r="D618" t="n">
+        <v>4511.7998046875</v>
+      </c>
+      <c r="E618" t="n">
+        <v>6132.10009765625</v>
+      </c>
+      <c r="F618" t="n">
+        <v>538.7000122070312</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="H618" t="n">
+        <v>36614.849609375</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.001586580009265521</v>
+      </c>
+      <c r="J618" t="n">
+        <v>184.2161730883455</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1943.699951171875</v>
+      </c>
+      <c r="D619" t="n">
+        <v>4553.75</v>
+      </c>
+      <c r="E619" t="n">
+        <v>6156.0498046875</v>
+      </c>
+      <c r="F619" t="n">
+        <v>538.4000244140625</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="H619" t="n">
+        <v>36697.599609375</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0.002260012013781763</v>
+      </c>
+      <c r="J619" t="n">
+        <v>184.632503852658</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D620" t="n">
+        <v>4521.0498046875</v>
+      </c>
+      <c r="E620" t="n">
+        <v>6153.5</v>
+      </c>
+      <c r="F620" t="n">
+        <v>532.4500122070312</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="H620" t="n">
+        <v>36751.5</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.001468771559958659</v>
+      </c>
+      <c r="J620" t="n">
+        <v>184.9036868233608</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D621" t="n">
+        <v>4512.35009765625</v>
+      </c>
+      <c r="E621" t="n">
+        <v>6145.7001953125</v>
+      </c>
+      <c r="F621" t="n">
+        <v>536.0499877929688</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="H621" t="n">
+        <v>36590.25</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.004387576017305416</v>
+      </c>
+      <c r="J621" t="n">
+        <v>184.0924078415432</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D622" t="n">
+        <v>4479.25</v>
+      </c>
+      <c r="E622" t="n">
+        <v>6071.2001953125</v>
+      </c>
+      <c r="F622" t="n">
+        <v>519.1500244140625</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="H622" t="n">
+        <v>36246.25036621094</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.009401401569791475</v>
+      </c>
+      <c r="J622" t="n">
+        <v>182.361681189475</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>4475.9501953125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>6149.2998046875</v>
+      </c>
+      <c r="F623" t="n">
+        <v>524.8499755859375</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="H623" t="n">
+        <v>36628.40014648438</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.01054315346863246</v>
+      </c>
+      <c r="J623" t="n">
+        <v>184.2843483810535</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D624" t="n">
+        <v>4456.75</v>
+      </c>
+      <c r="E624" t="n">
+        <v>6165.39990234375</v>
+      </c>
+      <c r="F624" t="n">
+        <v>520.5999755859375</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="H624" t="n">
+        <v>36223.09973144531</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.01106519567925938</v>
+      </c>
+      <c r="J624" t="n">
+        <v>182.2452060055923</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D625" t="n">
+        <v>4449.5498046875</v>
+      </c>
+      <c r="E625" t="n">
+        <v>6146.60009765625</v>
+      </c>
+      <c r="F625" t="n">
+        <v>514.8499755859375</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1091</v>
+      </c>
+      <c r="H625" t="n">
+        <v>36152.14953613281</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.00195870027243715</v>
+      </c>
+      <c r="J625" t="n">
+        <v>181.8882422709388</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D626" t="n">
+        <v>4507.85009765625</v>
+      </c>
+      <c r="E626" t="n">
+        <v>6343.35009765625</v>
+      </c>
+      <c r="F626" t="n">
+        <v>525.75</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="H626" t="n">
+        <v>36618.80041503906</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.01290797047738057</v>
+      </c>
+      <c r="J626" t="n">
+        <v>184.2360503323547</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D627" t="n">
+        <v>4479.35009765625</v>
+      </c>
+      <c r="E627" t="n">
+        <v>6299.2998046875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>514.3499755859375</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="H627" t="n">
+        <v>36399.69982910156</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.005983281359689682</v>
+      </c>
+      <c r="J627" t="n">
+        <v>183.1337142066183</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D628" t="n">
+        <v>4517.7001953125</v>
+      </c>
+      <c r="E628" t="n">
+        <v>6392.35009765625</v>
+      </c>
+      <c r="F628" t="n">
+        <v>530.0499877929688</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="H628" t="n">
+        <v>36989.09985351562</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.01619244189323883</v>
+      </c>
+      <c r="J628" t="n">
+        <v>186.0990962326019</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D629" t="n">
+        <v>4522.60009765625</v>
+      </c>
+      <c r="E629" t="n">
+        <v>6416.2001953125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>550.5999755859375</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="H629" t="n">
+        <v>37262.35009765625</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.007387318026736299</v>
+      </c>
+      <c r="J629" t="n">
+        <v>187.4738694409604</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D630" t="n">
+        <v>4513.25</v>
+      </c>
+      <c r="E630" t="n">
+        <v>6423.4501953125</v>
+      </c>
+      <c r="F630" t="n">
+        <v>551.9000244140625</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="H630" t="n">
+        <v>37225.50073242188</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.0009889168326152561</v>
+      </c>
+      <c r="J630" t="n">
+        <v>187.2884733757947</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D631" t="n">
+        <v>4505.64990234375</v>
+      </c>
+      <c r="E631" t="n">
+        <v>6455.75</v>
+      </c>
+      <c r="F631" t="n">
+        <v>551.9000244140625</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="H631" t="n">
+        <v>37181.6005859375</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.0011793030481962</v>
+      </c>
+      <c r="J631" t="n">
+        <v>187.0676035082506</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D632" t="n">
+        <v>4346.14990234375</v>
+      </c>
+      <c r="E632" t="n">
+        <v>6366.2998046875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>538.1500244140625</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="H632" t="n">
+        <v>36280.90002441406</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.02422436224717267</v>
+      </c>
+      <c r="J632" t="n">
+        <v>182.5360101161563</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D633" t="n">
+        <v>4296.14990234375</v>
+      </c>
+      <c r="E633" t="n">
+        <v>6377.14990234375</v>
+      </c>
+      <c r="F633" t="n">
+        <v>533.3499755859375</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="H633" t="n">
+        <v>36414.14892578125</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.003672701098305774</v>
+      </c>
+      <c r="J633" t="n">
+        <v>183.2064103209902</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D634" t="n">
+        <v>4284.89990234375</v>
+      </c>
+      <c r="E634" t="n">
+        <v>6373.10009765625</v>
+      </c>
+      <c r="F634" t="n">
+        <v>539.0999755859375</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="H634" t="n">
+        <v>36474.34936523438</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.001653215610663443</v>
+      </c>
+      <c r="J634" t="n">
+        <v>183.5092900185065</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D635" t="n">
+        <v>4268.5</v>
+      </c>
+      <c r="E635" t="n">
+        <v>6326.10009765625</v>
+      </c>
+      <c r="F635" t="n">
+        <v>534.9000244140625</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="H635" t="n">
+        <v>36256.65014648438</v>
+      </c>
+      <c r="I635" t="n">
+        <v>-0.005968556603164541</v>
+      </c>
+      <c r="J635" t="n">
+        <v>182.4140044338245</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1898.599975585938</v>
+      </c>
+      <c r="D636" t="n">
+        <v>4271.2998046875</v>
+      </c>
+      <c r="E636" t="n">
+        <v>6344.10009765625</v>
+      </c>
+      <c r="F636" t="n">
+        <v>539.5499877929688</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="H636" t="n">
+        <v>36297.29931640625</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.001121150733938296</v>
+      </c>
+      <c r="J636" t="n">
+        <v>182.6185180287761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J638"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="D602" sqref="D602"/>
@@ -19603,6 +19603,657 @@
         <v>176.0689475795104</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1939.099975585938</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1719.449951171875</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1078.800048828125</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1847.050048828125</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1737.900024414062</v>
+      </c>
+      <c r="H618" t="n">
+        <v>37879.2001953125</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>176.0689475795104</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1933.349975585938</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1751.849975585938</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1857.849975585938</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1726.550048828125</v>
+      </c>
+      <c r="H619" t="n">
+        <v>37876.40014648438</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-7.392048442647694e-05</v>
+      </c>
+      <c r="J619" t="n">
+        <v>176.0559324776129</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1943.699951171875</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1753.25</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1815.150024414062</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1772.25</v>
+      </c>
+      <c r="H620" t="n">
+        <v>37943.19958496094</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.001763616347335551</v>
+      </c>
+      <c r="J620" t="n">
+        <v>176.3664275981758</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1806.650024414062</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="H621" t="n">
+        <v>38025.74987792969</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.002175628146063607</v>
+      </c>
+      <c r="J621" t="n">
+        <v>176.7501353620791</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="H622" t="n">
+        <v>37895.55029296875</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.003423984678248408</v>
+      </c>
+      <c r="J622" t="n">
+        <v>176.144945606721</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="H623" t="n">
+        <v>37618.74926757812</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.007304314708473397</v>
+      </c>
+      <c r="J623" t="n">
+        <v>174.8583274897026</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1790.550048828125</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="H624" t="n">
+        <v>37761.05065917969</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.003782725220059497</v>
+      </c>
+      <c r="J624" t="n">
+        <v>175.5197684950353</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1756.099975585938</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H625" t="n">
+        <v>37713.70007324219</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.001253953084220899</v>
+      </c>
+      <c r="J625" t="n">
+        <v>175.2996749399892</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1746.75</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="H626" t="n">
+        <v>37455.65051269531</v>
+      </c>
+      <c r="I626" t="n">
+        <v>-0.006842329446480399</v>
+      </c>
+      <c r="J626" t="n">
+        <v>174.1002168121888</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1779.099975585938</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="H627" t="n">
+        <v>37856.65014648438</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.01070598503296977</v>
+      </c>
+      <c r="J627" t="n">
+        <v>175.964131127617</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="H628" t="n">
+        <v>37910.79992675781</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.001430390170918655</v>
+      </c>
+      <c r="J628" t="n">
+        <v>176.2158284912161</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1807.599975585938</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="H629" t="n">
+        <v>38550.34973144531</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0.01686985782212682</v>
+      </c>
+      <c r="J629" t="n">
+        <v>179.1885644638713</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1812.800048828125</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="H630" t="n">
+        <v>38552.5498046875</v>
+      </c>
+      <c r="I630" t="n">
+        <v>5.707012407186833e-05</v>
+      </c>
+      <c r="J630" t="n">
+        <v>179.1987907774775</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1811.849975585938</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="H631" t="n">
+        <v>38385.89990234375</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.004322668751821118</v>
+      </c>
+      <c r="J631" t="n">
+        <v>178.4241737642195</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="H632" t="n">
+        <v>38346.90075683594</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.001015975803798501</v>
+      </c>
+      <c r="J632" t="n">
+        <v>178.2428991208623</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="H633" t="n">
+        <v>37454.75048828125</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.023265250931541</v>
+      </c>
+      <c r="J633" t="n">
+        <v>174.0960333460501</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="H634" t="n">
+        <v>37317.94946289062</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.003652434567236724</v>
+      </c>
+      <c r="J634" t="n">
+        <v>173.4601589758382</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="H635" t="n">
+        <v>38001.24975585938</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.01831023147850691</v>
+      </c>
+      <c r="J635" t="n">
+        <v>176.6362546389844</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1752.800048828125</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="H636" t="n">
+        <v>37915.79968261719</v>
+      </c>
+      <c r="I636" t="n">
+        <v>-0.002248612184892999</v>
+      </c>
+      <c r="J636" t="n">
+        <v>176.2390682045093</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1898.599975585938</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1775.599975585938</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="H637" t="n">
+        <v>37717.7998046875</v>
+      </c>
+      <c r="I637" t="n">
+        <v>-0.00522209420840627</v>
+      </c>
+      <c r="J637" t="n">
+        <v>175.3187311871436</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1895.300048828125</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1782.400024414062</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="H638" t="n">
+        <v>37400.95031738281</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.008400529430280024</v>
+      </c>
+      <c r="J638" t="n">
+        <v>173.8459610261267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J638"/>
+  <dimension ref="A1:J659"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="D602" sqref="D602"/>
@@ -20254,6 +20254,657 @@
         <v>173.8459610261267</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1939.099975585938</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1719.449951171875</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1078.800048828125</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1847.050048828125</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1737.900024414062</v>
+      </c>
+      <c r="H639" t="n">
+        <v>37879.2001953125</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" t="n">
+        <v>173.8459610261267</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1933.349975585938</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1751.849975585938</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1061.300048828125</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1857.849975585938</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1726.550048828125</v>
+      </c>
+      <c r="H640" t="n">
+        <v>37876.40014648438</v>
+      </c>
+      <c r="I640" t="n">
+        <v>-7.392048442647694e-05</v>
+      </c>
+      <c r="J640" t="n">
+        <v>173.8331102484721</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1943.699951171875</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1753.25</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1065.599975585938</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1815.150024414062</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1772.25</v>
+      </c>
+      <c r="H641" t="n">
+        <v>37943.19958496094</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0.001763616347335551</v>
+      </c>
+      <c r="J641" t="n">
+        <v>174.1396851634145</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1806.650024414062</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="H642" t="n">
+        <v>38025.74987792969</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.002175628146063607</v>
+      </c>
+      <c r="J642" t="n">
+        <v>174.5185483638027</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="H643" t="n">
+        <v>37895.55029296875</v>
+      </c>
+      <c r="I643" t="n">
+        <v>-0.003423984678248408</v>
+      </c>
+      <c r="J643" t="n">
+        <v>173.9209995281348</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="H644" t="n">
+        <v>37618.74926757812</v>
+      </c>
+      <c r="I644" t="n">
+        <v>-0.007304314708473397</v>
+      </c>
+      <c r="J644" t="n">
+        <v>172.6506258131691</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1790.550048828125</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="H645" t="n">
+        <v>37761.05065917969</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.003782725220059497</v>
+      </c>
+      <c r="J645" t="n">
+        <v>173.3037156896916</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1756.099975585938</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H646" t="n">
+        <v>37713.70007324219</v>
+      </c>
+      <c r="I646" t="n">
+        <v>-0.001253953084220899</v>
+      </c>
+      <c r="J646" t="n">
+        <v>173.0864009608956</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1746.75</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="H647" t="n">
+        <v>37455.65051269531</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.006842329446480399</v>
+      </c>
+      <c r="J647" t="n">
+        <v>171.9020867828155</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1779.099975585938</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="H648" t="n">
+        <v>37856.65014648438</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.01070598503296977</v>
+      </c>
+      <c r="J648" t="n">
+        <v>173.7424679510486</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="H649" t="n">
+        <v>37910.79992675781</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0.001430390170918655</v>
+      </c>
+      <c r="J649" t="n">
+        <v>173.990987469477</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1807.599975585938</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="H650" t="n">
+        <v>38550.34973144531</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0.01686985782212682</v>
+      </c>
+      <c r="J650" t="n">
+        <v>176.9261906904185</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1812.800048828125</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="H651" t="n">
+        <v>38552.5498046875</v>
+      </c>
+      <c r="I651" t="n">
+        <v>5.707012407186833e-05</v>
+      </c>
+      <c r="J651" t="n">
+        <v>176.9362878900728</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1811.849975585938</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="H652" t="n">
+        <v>38385.89990234375</v>
+      </c>
+      <c r="I652" t="n">
+        <v>-0.004322668751821118</v>
+      </c>
+      <c r="J652" t="n">
+        <v>176.1714509273471</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="H653" t="n">
+        <v>38346.90075683594</v>
+      </c>
+      <c r="I653" t="n">
+        <v>-0.001015975803798501</v>
+      </c>
+      <c r="J653" t="n">
+        <v>175.9924649958849</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="H654" t="n">
+        <v>37454.75048828125</v>
+      </c>
+      <c r="I654" t="n">
+        <v>-0.023265250931541</v>
+      </c>
+      <c r="J654" t="n">
+        <v>171.8979561356952</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="H655" t="n">
+        <v>37317.94946289062</v>
+      </c>
+      <c r="I655" t="n">
+        <v>-0.003652434567236724</v>
+      </c>
+      <c r="J655" t="n">
+        <v>171.2701100986678</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="H656" t="n">
+        <v>38001.24975585938</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.01831023147850691</v>
+      </c>
+      <c r="J656" t="n">
+        <v>174.4061054599238</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1752.800048828125</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="H657" t="n">
+        <v>37915.79968261719</v>
+      </c>
+      <c r="I657" t="n">
+        <v>-0.002248612184892999</v>
+      </c>
+      <c r="J657" t="n">
+        <v>174.0139337660669</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1898.599975585938</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1775.599975585938</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="H658" t="n">
+        <v>37717.7998046875</v>
+      </c>
+      <c r="I658" t="n">
+        <v>-0.00522209420840627</v>
+      </c>
+      <c r="J658" t="n">
+        <v>173.1052166103651</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1895.300048828125</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1782.400024414062</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="H659" t="n">
+        <v>37400.95031738281</v>
+      </c>
+      <c r="I659" t="n">
+        <v>-0.008400529430280024</v>
+      </c>
+      <c r="J659" t="n">
+        <v>171.6510411436947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J616"/>
+  <dimension ref="A1:J636"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="D602" sqref="D602"/>
@@ -19572,6 +19572,626 @@
         <v>177.0042634142461</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1806.650024414062</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="H617" t="n">
+        <v>38025.74987792969</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>177.0042634142461</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="H618" t="n">
+        <v>37895.55029296875</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.003423984678248408</v>
+      </c>
+      <c r="J618" t="n">
+        <v>176.3982035283311</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="H619" t="n">
+        <v>37618.74926757812</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.007304314708473397</v>
+      </c>
+      <c r="J619" t="n">
+        <v>175.1097355357508</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1790.550048828125</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="H620" t="n">
+        <v>37761.05065917969</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.003782725220059497</v>
+      </c>
+      <c r="J620" t="n">
+        <v>175.7721275486398</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1756.099975585938</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H621" t="n">
+        <v>37713.70007324219</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.001253953084220899</v>
+      </c>
+      <c r="J621" t="n">
+        <v>175.5517175471801</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1746.75</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="H622" t="n">
+        <v>37455.65051269531</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.006842329446480399</v>
+      </c>
+      <c r="J622" t="n">
+        <v>174.3505348608268</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1779.099975585938</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="H623" t="n">
+        <v>37856.65014648438</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.01070598503296977</v>
+      </c>
+      <c r="J623" t="n">
+        <v>176.2171290775371</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="H624" t="n">
+        <v>37910.79992675781</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.001430390170918655</v>
+      </c>
+      <c r="J624" t="n">
+        <v>176.4691883269172</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1807.599975585938</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="H625" t="n">
+        <v>38550.34973144531</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.01686985782212682</v>
+      </c>
+      <c r="J625" t="n">
+        <v>179.4461984439784</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1812.800048828125</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="H626" t="n">
+        <v>38552.5498046875</v>
+      </c>
+      <c r="I626" t="n">
+        <v>5.707012407186833e-05</v>
+      </c>
+      <c r="J626" t="n">
+        <v>179.4564394607878</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1811.849975585938</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="H627" t="n">
+        <v>38385.89990234375</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.004322668751821118</v>
+      </c>
+      <c r="J627" t="n">
+        <v>178.6807087176176</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="H628" t="n">
+        <v>38346.90075683594</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.001015975803798501</v>
+      </c>
+      <c r="J628" t="n">
+        <v>178.4991734409549</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="H629" t="n">
+        <v>37454.75048828125</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.023265250931541</v>
+      </c>
+      <c r="J629" t="n">
+        <v>174.3463453797785</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="H630" t="n">
+        <v>37317.94946289062</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.003652434567236724</v>
+      </c>
+      <c r="J630" t="n">
+        <v>173.709556761242</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="H631" t="n">
+        <v>38001.24975585938</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.01831023147850691</v>
+      </c>
+      <c r="J631" t="n">
+        <v>176.8902189555691</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1752.800048828125</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="H632" t="n">
+        <v>37915.79968261719</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.002248612184892999</v>
+      </c>
+      <c r="J632" t="n">
+        <v>176.4924614538373</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1898.599975585938</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1775.599975585938</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="H633" t="n">
+        <v>37717.7998046875</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.00522209420840627</v>
+      </c>
+      <c r="J633" t="n">
+        <v>175.5708011930518</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1895.300048828125</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1782.400024414062</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="H634" t="n">
+        <v>37400.95031738281</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.008400529430280024</v>
+      </c>
+      <c r="J634" t="n">
+        <v>174.0959135105317</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1900.25</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1783.849975585938</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1094.949951171875</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1682.449951171875</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1685.900024414062</v>
+      </c>
+      <c r="H635" t="n">
+        <v>37499.49938964844</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.002634934979708856</v>
+      </c>
+      <c r="J635" t="n">
+        <v>174.554644922865</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1906.75</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1808.400024414062</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1671</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1640.800048828125</v>
+      </c>
+      <c r="H636" t="n">
+        <v>37745.10021972656</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.006549442901254356</v>
+      </c>
+      <c r="J636" t="n">
+        <v>175.697880602936</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J636"/>
+  <dimension ref="A1:J656"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="D602" sqref="D602"/>
@@ -20192,6 +20192,626 @@
         <v>175.697880602936</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1806.650024414062</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="H637" t="n">
+        <v>38025.74987792969</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0</v>
+      </c>
+      <c r="J637" t="n">
+        <v>175.697880602936</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="H638" t="n">
+        <v>37895.55029296875</v>
+      </c>
+      <c r="I638" t="n">
+        <v>-0.003423984678248408</v>
+      </c>
+      <c r="J638" t="n">
+        <v>175.0962937517508</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="H639" t="n">
+        <v>37618.74926757812</v>
+      </c>
+      <c r="I639" t="n">
+        <v>-0.007304314708473397</v>
+      </c>
+      <c r="J639" t="n">
+        <v>173.8173353179008</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1790.550048828125</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="H640" t="n">
+        <v>37761.05065917969</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.003782725220059497</v>
+      </c>
+      <c r="J640" t="n">
+        <v>174.4748385358913</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D641" t="n">
+        <v>1756.099975585938</v>
+      </c>
+      <c r="E641" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H641" t="n">
+        <v>37713.70007324219</v>
+      </c>
+      <c r="I641" t="n">
+        <v>-0.001253953084220899</v>
+      </c>
+      <c r="J641" t="n">
+        <v>174.2560552739903</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1746.75</v>
+      </c>
+      <c r="E642" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="H642" t="n">
+        <v>37455.65051269531</v>
+      </c>
+      <c r="I642" t="n">
+        <v>-0.006842329446480399</v>
+      </c>
+      <c r="J642" t="n">
+        <v>173.0637379357615</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1779.099975585938</v>
+      </c>
+      <c r="E643" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="H643" t="n">
+        <v>37856.65014648438</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0.01070598503296977</v>
+      </c>
+      <c r="J643" t="n">
+        <v>174.9165557238516</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="E644" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="H644" t="n">
+        <v>37910.79992675781</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.001430390170918655</v>
+      </c>
+      <c r="J644" t="n">
+        <v>175.16675464589</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1807.599975585938</v>
+      </c>
+      <c r="E645" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="H645" t="n">
+        <v>38550.34973144531</v>
+      </c>
+      <c r="I645" t="n">
+        <v>0.01686985782212682</v>
+      </c>
+      <c r="J645" t="n">
+        <v>178.1217928919295</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D646" t="n">
+        <v>1812.800048828125</v>
+      </c>
+      <c r="E646" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="H646" t="n">
+        <v>38552.5498046875</v>
+      </c>
+      <c r="I646" t="n">
+        <v>5.707012407186833e-05</v>
+      </c>
+      <c r="J646" t="n">
+        <v>178.1319583247497</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D647" t="n">
+        <v>1811.849975585938</v>
+      </c>
+      <c r="E647" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="H647" t="n">
+        <v>38385.89990234375</v>
+      </c>
+      <c r="I647" t="n">
+        <v>-0.004322668751821118</v>
+      </c>
+      <c r="J647" t="n">
+        <v>177.3619528747986</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D648" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="H648" t="n">
+        <v>38346.90075683594</v>
+      </c>
+      <c r="I648" t="n">
+        <v>-0.001015975803798501</v>
+      </c>
+      <c r="J648" t="n">
+        <v>177.1817574221634</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="E649" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="H649" t="n">
+        <v>37454.75048828125</v>
+      </c>
+      <c r="I649" t="n">
+        <v>-0.023265250931541</v>
+      </c>
+      <c r="J649" t="n">
+        <v>173.0595793752453</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D650" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E650" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="H650" t="n">
+        <v>37317.94946289062</v>
+      </c>
+      <c r="I650" t="n">
+        <v>-0.003652434567236724</v>
+      </c>
+      <c r="J650" t="n">
+        <v>172.4274905853437</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D651" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="H651" t="n">
+        <v>38001.24975585938</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0.01831023147850691</v>
+      </c>
+      <c r="J651" t="n">
+        <v>175.5846778512195</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D652" t="n">
+        <v>1752.800048828125</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="H652" t="n">
+        <v>37915.79968261719</v>
+      </c>
+      <c r="I652" t="n">
+        <v>-0.002248612184892999</v>
+      </c>
+      <c r="J652" t="n">
+        <v>175.1898560051227</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1898.599975585938</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1775.599975585938</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="H653" t="n">
+        <v>37717.7998046875</v>
+      </c>
+      <c r="I653" t="n">
+        <v>-0.00522209420840627</v>
+      </c>
+      <c r="J653" t="n">
+        <v>174.2749980727068</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1895.300048828125</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1782.400024414062</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="H654" t="n">
+        <v>37400.95031738281</v>
+      </c>
+      <c r="I654" t="n">
+        <v>-0.008400529430280024</v>
+      </c>
+      <c r="J654" t="n">
+        <v>172.810995822435</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>1900.25</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1783.849975585938</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1094.949951171875</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1682.449951171875</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1685.900024414062</v>
+      </c>
+      <c r="H655" t="n">
+        <v>37499.49938964844</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0.002634934979708856</v>
+      </c>
+      <c r="J655" t="n">
+        <v>173.2663415602059</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>1906.75</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1808.400024414062</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1671</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1640.800048828125</v>
+      </c>
+      <c r="H656" t="n">
+        <v>37745.10021972656</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.006549442901254356</v>
+      </c>
+      <c r="J656" t="n">
+        <v>174.4011395709637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J656"/>
+  <dimension ref="A1:J676"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="D602" sqref="D602"/>
@@ -20812,6 +20812,626 @@
         <v>174.4011395709637</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1806.650024414062</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="H657" t="n">
+        <v>38025.74987792969</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" t="n">
+        <v>174.4011395709637</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="H658" t="n">
+        <v>37895.55029296875</v>
+      </c>
+      <c r="I658" t="n">
+        <v>-0.003423984678248408</v>
+      </c>
+      <c r="J658" t="n">
+        <v>173.8039927412036</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="H659" t="n">
+        <v>37618.74926757812</v>
+      </c>
+      <c r="I659" t="n">
+        <v>-0.007304314708473397</v>
+      </c>
+      <c r="J659" t="n">
+        <v>172.5344736806327</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1790.550048828125</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="H660" t="n">
+        <v>37761.05065917969</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.003782725220059497</v>
+      </c>
+      <c r="J660" t="n">
+        <v>173.1871241855541</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1756.099975585938</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H661" t="n">
+        <v>37713.70007324219</v>
+      </c>
+      <c r="I661" t="n">
+        <v>-0.001253953084220899</v>
+      </c>
+      <c r="J661" t="n">
+        <v>172.9699556570342</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1746.75</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F662" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="H662" t="n">
+        <v>37455.65051269531</v>
+      </c>
+      <c r="I662" t="n">
+        <v>-0.006842329446480399</v>
+      </c>
+      <c r="J662" t="n">
+        <v>171.7864382360857</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1779.099975585938</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="H663" t="n">
+        <v>37856.65014648438</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0.01070598503296977</v>
+      </c>
+      <c r="J663" t="n">
+        <v>173.6255812727084</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D664" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="E664" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="H664" t="n">
+        <v>37910.79992675781</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.001430390170918655</v>
+      </c>
+      <c r="J664" t="n">
+        <v>173.873933597581</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D665" t="n">
+        <v>1807.599975585938</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="H665" t="n">
+        <v>38550.34973144531</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0.01686985782212682</v>
+      </c>
+      <c r="J665" t="n">
+        <v>176.8071621363461</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D666" t="n">
+        <v>1812.800048828125</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="H666" t="n">
+        <v>38552.5498046875</v>
+      </c>
+      <c r="I666" t="n">
+        <v>5.707012407186833e-05</v>
+      </c>
+      <c r="J666" t="n">
+        <v>176.817252543026</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D667" t="n">
+        <v>1811.849975585938</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="H667" t="n">
+        <v>38385.89990234375</v>
+      </c>
+      <c r="I667" t="n">
+        <v>-0.004322668751821118</v>
+      </c>
+      <c r="J667" t="n">
+        <v>176.0529301306754</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D668" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="H668" t="n">
+        <v>38346.90075683594</v>
+      </c>
+      <c r="I668" t="n">
+        <v>-0.001015975803798501</v>
+      </c>
+      <c r="J668" t="n">
+        <v>175.8740646134748</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D669" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="H669" t="n">
+        <v>37454.75048828125</v>
+      </c>
+      <c r="I669" t="n">
+        <v>-0.023265250931541</v>
+      </c>
+      <c r="J669" t="n">
+        <v>171.7823103678923</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D670" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G670" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="H670" t="n">
+        <v>37317.94946289062</v>
+      </c>
+      <c r="I670" t="n">
+        <v>-0.003652434567236724</v>
+      </c>
+      <c r="J670" t="n">
+        <v>171.1548867194648</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D671" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="H671" t="n">
+        <v>38001.24975585938</v>
+      </c>
+      <c r="I671" t="n">
+        <v>0.01831023147850691</v>
+      </c>
+      <c r="J671" t="n">
+        <v>174.2887723139758</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1752.800048828125</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="H672" t="n">
+        <v>37915.79968261719</v>
+      </c>
+      <c r="I672" t="n">
+        <v>-0.002248612184892999</v>
+      </c>
+      <c r="J672" t="n">
+        <v>173.8968644568606</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>1898.599975585938</v>
+      </c>
+      <c r="D673" t="n">
+        <v>1775.599975585938</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="H673" t="n">
+        <v>37717.7998046875</v>
+      </c>
+      <c r="I673" t="n">
+        <v>-0.00522209420840627</v>
+      </c>
+      <c r="J673" t="n">
+        <v>172.9887586481204</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>1895.300048828125</v>
+      </c>
+      <c r="D674" t="n">
+        <v>1782.400024414062</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="H674" t="n">
+        <v>37400.95031738281</v>
+      </c>
+      <c r="I674" t="n">
+        <v>-0.008400529430280024</v>
+      </c>
+      <c r="J674" t="n">
+        <v>171.5355614899892</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>1900.25</v>
+      </c>
+      <c r="D675" t="n">
+        <v>1783.849975585938</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1094.949951171875</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1682.449951171875</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1685.900024414062</v>
+      </c>
+      <c r="H675" t="n">
+        <v>37499.49938964844</v>
+      </c>
+      <c r="I675" t="n">
+        <v>0.002634934979708856</v>
+      </c>
+      <c r="J675" t="n">
+        <v>171.9875465412232</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>1906.75</v>
+      </c>
+      <c r="D676" t="n">
+        <v>1808.400024414062</v>
+      </c>
+      <c r="E676" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1671</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1640.800048828125</v>
+      </c>
+      <c r="H676" t="n">
+        <v>37745.10021972656</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.006549442901254356</v>
+      </c>
+      <c r="J676" t="n">
+        <v>173.1139691570218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J676"/>
+  <dimension ref="A1:J696"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="D602" sqref="D602"/>
@@ -21432,6 +21432,626 @@
         <v>173.1139691570218</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D677" t="n">
+        <v>1806.650024414062</v>
+      </c>
+      <c r="E677" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G677" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="H677" t="n">
+        <v>38025.74987792969</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0</v>
+      </c>
+      <c r="J677" t="n">
+        <v>173.1139691570218</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D678" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="E678" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G678" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="H678" t="n">
+        <v>37895.55029296875</v>
+      </c>
+      <c r="I678" t="n">
+        <v>-0.003423984678248408</v>
+      </c>
+      <c r="J678" t="n">
+        <v>172.5212295790374</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D679" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="E679" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G679" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="H679" t="n">
+        <v>37618.74926757812</v>
+      </c>
+      <c r="I679" t="n">
+        <v>-0.007304314708473397</v>
+      </c>
+      <c r="J679" t="n">
+        <v>171.2610802242993</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D680" t="n">
+        <v>1790.550048828125</v>
+      </c>
+      <c r="E680" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="H680" t="n">
+        <v>37761.05065917969</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0.003782725220059497</v>
+      </c>
+      <c r="J680" t="n">
+        <v>171.9089138316784</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D681" t="n">
+        <v>1756.099975585938</v>
+      </c>
+      <c r="E681" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G681" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H681" t="n">
+        <v>37713.70007324219</v>
+      </c>
+      <c r="I681" t="n">
+        <v>-0.001253953084220899</v>
+      </c>
+      <c r="J681" t="n">
+        <v>171.6933481189741</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D682" t="n">
+        <v>1746.75</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="H682" t="n">
+        <v>37455.65051269531</v>
+      </c>
+      <c r="I682" t="n">
+        <v>-0.006842329446480399</v>
+      </c>
+      <c r="J682" t="n">
+        <v>170.5185656673748</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D683" t="n">
+        <v>1779.099975585938</v>
+      </c>
+      <c r="E683" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="H683" t="n">
+        <v>37856.65014648438</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0.01070598503296977</v>
+      </c>
+      <c r="J683" t="n">
+        <v>172.3441348792532</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D684" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="E684" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="H684" t="n">
+        <v>37910.79992675781</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0.001430390170918655</v>
+      </c>
+      <c r="J684" t="n">
+        <v>172.5906542358</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D685" t="n">
+        <v>1807.599975585938</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="H685" t="n">
+        <v>38550.34973144531</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0.01686985782212682</v>
+      </c>
+      <c r="J685" t="n">
+        <v>175.5022340341858</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D686" t="n">
+        <v>1812.800048828125</v>
+      </c>
+      <c r="E686" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="H686" t="n">
+        <v>38552.5498046875</v>
+      </c>
+      <c r="I686" t="n">
+        <v>5.707012407186833e-05</v>
+      </c>
+      <c r="J686" t="n">
+        <v>175.512249968457</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D687" t="n">
+        <v>1811.849975585938</v>
+      </c>
+      <c r="E687" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="H687" t="n">
+        <v>38385.89990234375</v>
+      </c>
+      <c r="I687" t="n">
+        <v>-0.004322668751821118</v>
+      </c>
+      <c r="J687" t="n">
+        <v>174.7535686499565</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D688" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="E688" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="H688" t="n">
+        <v>38346.90075683594</v>
+      </c>
+      <c r="I688" t="n">
+        <v>-0.001015975803798501</v>
+      </c>
+      <c r="J688" t="n">
+        <v>174.5760232525807</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D689" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="E689" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="H689" t="n">
+        <v>37454.75048828125</v>
+      </c>
+      <c r="I689" t="n">
+        <v>-0.023265250931541</v>
+      </c>
+      <c r="J689" t="n">
+        <v>170.5144682649789</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E690" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="H690" t="n">
+        <v>37317.94946289062</v>
+      </c>
+      <c r="I690" t="n">
+        <v>-0.003652434567236724</v>
+      </c>
+      <c r="J690" t="n">
+        <v>169.8916753268739</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D691" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E691" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="H691" t="n">
+        <v>38001.24975585938</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0.01831023147850691</v>
+      </c>
+      <c r="J691" t="n">
+        <v>173.0024312283803</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1752.800048828125</v>
+      </c>
+      <c r="E692" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="H692" t="n">
+        <v>37915.79968261719</v>
+      </c>
+      <c r="I692" t="n">
+        <v>-0.002248612184892999</v>
+      </c>
+      <c r="J692" t="n">
+        <v>172.6134158535041</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>1898.599975585938</v>
+      </c>
+      <c r="D693" t="n">
+        <v>1775.599975585938</v>
+      </c>
+      <c r="E693" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="H693" t="n">
+        <v>37717.7998046875</v>
+      </c>
+      <c r="I693" t="n">
+        <v>-0.00522209420840627</v>
+      </c>
+      <c r="J693" t="n">
+        <v>171.7120123342822</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>1895.300048828125</v>
+      </c>
+      <c r="D694" t="n">
+        <v>1782.400024414062</v>
+      </c>
+      <c r="E694" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="H694" t="n">
+        <v>37400.95031738281</v>
+      </c>
+      <c r="I694" t="n">
+        <v>-0.008400529430280024</v>
+      </c>
+      <c r="J694" t="n">
+        <v>170.2695405211355</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>1900.25</v>
+      </c>
+      <c r="D695" t="n">
+        <v>1783.849975585938</v>
+      </c>
+      <c r="E695" t="n">
+        <v>1094.949951171875</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1682.449951171875</v>
+      </c>
+      <c r="G695" t="n">
+        <v>1685.900024414062</v>
+      </c>
+      <c r="H695" t="n">
+        <v>37499.49938964844</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0.002634934979708856</v>
+      </c>
+      <c r="J695" t="n">
+        <v>170.7181896894336</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>1906.75</v>
+      </c>
+      <c r="D696" t="n">
+        <v>1808.400024414062</v>
+      </c>
+      <c r="E696" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F696" t="n">
+        <v>1671</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1640.800048828125</v>
+      </c>
+      <c r="H696" t="n">
+        <v>37745.10021972656</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.006549442901254356</v>
+      </c>
+      <c r="J696" t="n">
+        <v>171.83629872501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J616"/>
+  <dimension ref="A1:J637"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19574,6 +19574,657 @@
         <v>177.0042634142461</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-09-02</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1964.5</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1806.650024414062</v>
+      </c>
+      <c r="E617" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1749.5</v>
+      </c>
+      <c r="H617" t="n">
+        <v>38025.74987792969</v>
+      </c>
+      <c r="I617" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" t="n">
+        <v>177.0042634142461</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>1941.25</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1790.449951171875</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1068.800048828125</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1769.300048828125</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1718.75</v>
+      </c>
+      <c r="H618" t="n">
+        <v>37895.55029296875</v>
+      </c>
+      <c r="I618" t="n">
+        <v>-0.003423984678248408</v>
+      </c>
+      <c r="J618" t="n">
+        <v>176.3982035283311</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1922.449951171875</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1056.199951171875</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1749.699951171875</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1729.550048828125</v>
+      </c>
+      <c r="H619" t="n">
+        <v>37618.74926757812</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.007304314708473397</v>
+      </c>
+      <c r="J619" t="n">
+        <v>175.1097355357508</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>1933.150024414062</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1790.550048828125</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1074.900024414062</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1722.900024414062</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1720.75</v>
+      </c>
+      <c r="H620" t="n">
+        <v>37761.05065917969</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.003782725220059497</v>
+      </c>
+      <c r="J620" t="n">
+        <v>175.7721275486398</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1901.849975585938</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1756.099975585938</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1112.650024414062</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1730.300048828125</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1715</v>
+      </c>
+      <c r="H621" t="n">
+        <v>37713.70007324219</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.001253953084220899</v>
+      </c>
+      <c r="J621" t="n">
+        <v>175.5517175471801</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>1894.650024414062</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1746.75</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1077.550048828125</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1750.400024414062</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="H622" t="n">
+        <v>37455.65051269531</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.006842329446480399</v>
+      </c>
+      <c r="J622" t="n">
+        <v>174.3505348608268</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>1912.300048828125</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1779.099975585938</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1091</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1756.349975585938</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1745.150024414062</v>
+      </c>
+      <c r="H623" t="n">
+        <v>37856.65014648438</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.01070598503296977</v>
+      </c>
+      <c r="J623" t="n">
+        <v>176.2171290775371</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1910.150024414062</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1778.75</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1077.849975585938</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1789.349975585938</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1782.650024414062</v>
+      </c>
+      <c r="H624" t="n">
+        <v>37910.79992675781</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.001430390170918655</v>
+      </c>
+      <c r="J624" t="n">
+        <v>176.4691883269172</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1950.449951171875</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1807.599975585938</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1838.050048828125</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1812.75</v>
+      </c>
+      <c r="H625" t="n">
+        <v>38550.34973144531</v>
+      </c>
+      <c r="I625" t="n">
+        <v>0.01686985782212682</v>
+      </c>
+      <c r="J625" t="n">
+        <v>179.4461984439784</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1944.099975585938</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1812.800048828125</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1089.699951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1826.050048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1814.099975585938</v>
+      </c>
+      <c r="H626" t="n">
+        <v>38552.5498046875</v>
+      </c>
+      <c r="I626" t="n">
+        <v>5.707012407186833e-05</v>
+      </c>
+      <c r="J626" t="n">
+        <v>179.4564394607878</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1950.25</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1811.849975585938</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1094.650024414062</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1757.849975585938</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="H627" t="n">
+        <v>38385.89990234375</v>
+      </c>
+      <c r="I627" t="n">
+        <v>-0.004322668751821118</v>
+      </c>
+      <c r="J627" t="n">
+        <v>178.6807087176176</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1952.550048828125</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1813.75</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1080.300048828125</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1741.150024414062</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1848.5</v>
+      </c>
+      <c r="H628" t="n">
+        <v>38346.90075683594</v>
+      </c>
+      <c r="I628" t="n">
+        <v>-0.001015975803798501</v>
+      </c>
+      <c r="J628" t="n">
+        <v>178.4991734409549</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>1892.150024414062</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1756.5</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1065.800048828125</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1727.25</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1805.599975585938</v>
+      </c>
+      <c r="H629" t="n">
+        <v>37454.75048828125</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.023265250931541</v>
+      </c>
+      <c r="J629" t="n">
+        <v>174.3463453797785</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-09-19</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>1894.199951171875</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1676.449951171875</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1877.449951171875</v>
+      </c>
+      <c r="H630" t="n">
+        <v>37317.94946289062</v>
+      </c>
+      <c r="I630" t="n">
+        <v>-0.003652434567236724</v>
+      </c>
+      <c r="J630" t="n">
+        <v>173.709556761242</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-09-20</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>1905.75</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1760.050048828125</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1114.699951171875</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1931.449951171875</v>
+      </c>
+      <c r="H631" t="n">
+        <v>38001.24975585938</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.01831023147850691</v>
+      </c>
+      <c r="J631" t="n">
+        <v>176.8902189555691</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1752.800048828125</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1106.699951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1692.900024414062</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1920.400024414062</v>
+      </c>
+      <c r="H632" t="n">
+        <v>37915.79968261719</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.002248612184892999</v>
+      </c>
+      <c r="J632" t="n">
+        <v>176.4924614538373</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>1898.599975585938</v>
+      </c>
+      <c r="D633" t="n">
+        <v>1775.599975585938</v>
+      </c>
+      <c r="E633" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1660.900024414062</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="H633" t="n">
+        <v>37717.7998046875</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.00522209420840627</v>
+      </c>
+      <c r="J633" t="n">
+        <v>175.5708011930518</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1895.300048828125</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1782.400024414062</v>
+      </c>
+      <c r="E634" t="n">
+        <v>1088.599975585938</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1654.75</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1722.050048828125</v>
+      </c>
+      <c r="H634" t="n">
+        <v>37400.95031738281</v>
+      </c>
+      <c r="I634" t="n">
+        <v>-0.008400529430280024</v>
+      </c>
+      <c r="J634" t="n">
+        <v>174.0959135105317</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1900.25</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1783.849975585938</v>
+      </c>
+      <c r="E635" t="n">
+        <v>1094.949951171875</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1682.449951171875</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1685.900024414062</v>
+      </c>
+      <c r="H635" t="n">
+        <v>37499.49938964844</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0.002634934979708856</v>
+      </c>
+      <c r="J635" t="n">
+        <v>174.554644922865</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>1906.75</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1808.400024414062</v>
+      </c>
+      <c r="E636" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1671</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1640.800048828125</v>
+      </c>
+      <c r="H636" t="n">
+        <v>37745.10021972656</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.006549442901254356</v>
+      </c>
+      <c r="J636" t="n">
+        <v>175.697880602936</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1875.599975585938</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1796.099975585938</v>
+      </c>
+      <c r="E637" t="n">
+        <v>1103.150024414062</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1619.949951171875</v>
+      </c>
+      <c r="H637" t="n">
+        <v>37183.19982910156</v>
+      </c>
+      <c r="I637" t="n">
+        <v>-0.01488671078773123</v>
+      </c>
+      <c r="J637" t="n">
+        <v>173.0823170683828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -88,9 +88,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -102,7 +102,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J619"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -18951,7 +18952,7 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" s="9" t="n">
+      <c r="A595" s="10" t="n">
         <v>45533</v>
       </c>
       <c r="B595" s="6" t="n"/>
@@ -18981,7 +18982,7 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" s="9" t="n">
+      <c r="A596" s="10" t="n">
         <v>45534</v>
       </c>
       <c r="B596" s="6" t="n"/>
@@ -19011,7 +19012,7 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="9" t="n">
+      <c r="A597" s="10" t="n">
         <v>45537</v>
       </c>
       <c r="C597" t="n">
@@ -19040,7 +19041,7 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" s="9" t="n">
+      <c r="A598" s="10" t="n">
         <v>45538</v>
       </c>
       <c r="C598" t="n">
@@ -19069,7 +19070,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="9" t="n">
+      <c r="A599" s="10" t="n">
         <v>45539</v>
       </c>
       <c r="C599" t="n">
@@ -19098,7 +19099,7 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" s="9" t="n">
+      <c r="A600" s="10" t="n">
         <v>45540</v>
       </c>
       <c r="C600" t="n">
@@ -19127,7 +19128,7 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" s="9" t="n">
+      <c r="A601" s="10" t="n">
         <v>45541</v>
       </c>
       <c r="C601" t="n">
@@ -19156,7 +19157,7 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="9" t="n">
+      <c r="A602" s="10" t="n">
         <v>45544</v>
       </c>
       <c r="C602" t="n">
@@ -19185,7 +19186,7 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" s="9" t="n">
+      <c r="A603" s="10" t="n">
         <v>45545</v>
       </c>
       <c r="C603" t="n">
@@ -19214,7 +19215,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="9" t="n">
+      <c r="A604" s="10" t="n">
         <v>45546</v>
       </c>
       <c r="C604" t="n">
@@ -19243,7 +19244,7 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" s="9" t="n">
+      <c r="A605" s="10" t="n">
         <v>45547</v>
       </c>
       <c r="C605" t="n">
@@ -19272,7 +19273,7 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" s="9" t="n">
+      <c r="A606" s="10" t="n">
         <v>45548</v>
       </c>
       <c r="C606" t="n">
@@ -19301,7 +19302,7 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="9" t="n">
+      <c r="A607" s="10" t="n">
         <v>45551</v>
       </c>
       <c r="C607" t="n">
@@ -19330,7 +19331,7 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" s="9" t="n">
+      <c r="A608" s="10" t="n">
         <v>45552</v>
       </c>
       <c r="C608" t="n">
@@ -19359,7 +19360,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="9" t="n">
+      <c r="A609" s="10" t="n">
         <v>45553</v>
       </c>
       <c r="C609" t="n">
@@ -19388,7 +19389,7 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" s="9" t="n">
+      <c r="A610" s="10" t="n">
         <v>45554</v>
       </c>
       <c r="C610" t="n">
@@ -19417,7 +19418,7 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" s="9" t="n">
+      <c r="A611" s="10" t="n">
         <v>45555</v>
       </c>
       <c r="C611" t="n">
@@ -19446,7 +19447,7 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="9" t="n">
+      <c r="A612" s="10" t="n">
         <v>45558</v>
       </c>
       <c r="C612" t="n">
@@ -19475,7 +19476,7 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" s="9" t="n">
+      <c r="A613" s="10" t="n">
         <v>45559</v>
       </c>
       <c r="C613" t="n">
@@ -19504,7 +19505,7 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" s="9" t="n">
+      <c r="A614" s="10" t="n">
         <v>45560</v>
       </c>
       <c r="C614" t="n">
@@ -19533,7 +19534,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" s="9" t="n">
+      <c r="A615" s="10" t="n">
         <v>45561</v>
       </c>
       <c r="C615" t="n">
@@ -19562,7 +19563,7 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" s="9" t="n">
+      <c r="A616" s="10" t="n">
         <v>45562</v>
       </c>
       <c r="C616" t="n">
@@ -19591,7 +19592,7 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" s="9" t="n">
+      <c r="A617" s="10" t="n">
         <v>45565</v>
       </c>
       <c r="C617" t="n">
@@ -19617,6 +19618,64 @@
       </c>
       <c r="J617" t="n">
         <v>175.0568043030761</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1904.349975585938</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1816.5</v>
+      </c>
+      <c r="E618" t="n">
+        <v>1094.25</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1672.5</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1730.449951171875</v>
+      </c>
+      <c r="H618" t="n">
+        <v>37740.99975585938</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>175.0568043030761</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1893.400024414062</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1778.550048828125</v>
+      </c>
+      <c r="E619" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1676.050048828125</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1706.900024414062</v>
+      </c>
+      <c r="H619" t="n">
+        <v>37201.5009765625</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.01429476650822205</v>
+      </c>
+      <c r="J619" t="n">
+        <v>172.5544081598881</v>
       </c>
     </row>
   </sheetData>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J619"/>
+  <dimension ref="A1:J621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19678,6 +19678,64 @@
         <v>172.5544081598881</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1904.349975585938</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1816.5</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1094.25</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1672.5</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1730.449951171875</v>
+      </c>
+      <c r="H620" t="n">
+        <v>37740.99975585938</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="n">
+        <v>172.5544081598881</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1893.400024414062</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1778.550048828125</v>
+      </c>
+      <c r="E621" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1676.050048828125</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1706.900024414062</v>
+      </c>
+      <c r="H621" t="n">
+        <v>37201.5009765625</v>
+      </c>
+      <c r="I621" t="n">
+        <v>-0.01429476650822205</v>
+      </c>
+      <c r="J621" t="n">
+        <v>170.0877831852781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J621"/>
+  <dimension ref="A1:J623"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19736,6 +19736,64 @@
         <v>170.0877831852781</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C622" t="n">
+        <v>1904.349975585938</v>
+      </c>
+      <c r="D622" t="n">
+        <v>1816.5</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1094.25</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1672.5</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1730.449951171875</v>
+      </c>
+      <c r="H622" t="n">
+        <v>37740.99975585938</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" t="n">
+        <v>170.0877831852781</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1893.400024414062</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1778.550048828125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1676.050048828125</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1706.900024414062</v>
+      </c>
+      <c r="H623" t="n">
+        <v>37201.5009765625</v>
+      </c>
+      <c r="I623" t="n">
+        <v>-0.01429476650822205</v>
+      </c>
+      <c r="J623" t="n">
+        <v>167.6564180387435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -90,7 +90,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -104,6 +104,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J623"/>
+  <dimension ref="A1:J625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19794,6 +19795,64 @@
         <v>167.6564180387435</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="11" t="n">
+        <v>45566</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1904.349975585938</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1816.5</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1094.25</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1672.5</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1730.449951171875</v>
+      </c>
+      <c r="H624" t="n">
+        <v>37740.99975585938</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>167.6564180387435</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="11" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C625" t="n">
+        <v>1893.400024414062</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1778.550048828125</v>
+      </c>
+      <c r="E625" t="n">
+        <v>1063.300048828125</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1676.050048828125</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1706.900024414062</v>
+      </c>
+      <c r="H625" t="n">
+        <v>37201.5009765625</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.01429476650822205</v>
+      </c>
+      <c r="J625" t="n">
+        <v>165.2598086892748</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19852,6 +19852,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1839.949951171875</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1641</v>
+      </c>
+      <c r="H626" t="n">
+        <v>37921.35009765625</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19881,6 +19881,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1839.949951171875</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1641</v>
+      </c>
+      <c r="H627" t="n">
+        <v>37921.35009765625</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19910,6 +19910,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1839.949951171875</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1641</v>
+      </c>
+      <c r="H628" t="n">
+        <v>37921.35009765625</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19939,6 +19939,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1839.949951171875</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1641</v>
+      </c>
+      <c r="H629" t="n">
+        <v>37921.35009765625</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J629"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19968,6 +19968,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="10" t="n">
+        <v>45576</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1839.949951171875</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1054.900024414062</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1641</v>
+      </c>
+      <c r="H630" t="n">
+        <v>37921.35009765625</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J625"/>
+  <dimension ref="A1:J626"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19852,6 +19852,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1958.900024414062</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1855.900024414062</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1791.699951171875</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1652.650024414062</v>
+      </c>
+      <c r="H626" t="n">
+        <v>38120.89978027344</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J626"/>
+  <dimension ref="A1:J627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19881,6 +19881,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1958.900024414062</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1855.900024414062</v>
+      </c>
+      <c r="E627" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1791.699951171875</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1652.650024414062</v>
+      </c>
+      <c r="H627" t="n">
+        <v>38120.89978027344</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J627"/>
+  <dimension ref="A1:J628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19910,6 +19910,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1958.900024414062</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1855.900024414062</v>
+      </c>
+      <c r="E628" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1791.699951171875</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1652.650024414062</v>
+      </c>
+      <c r="H628" t="n">
+        <v>38120.89978027344</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J628"/>
+  <dimension ref="A1:J629"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19939,6 +19939,35 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="10" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1958.900024414062</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1855.900024414062</v>
+      </c>
+      <c r="E629" t="n">
+        <v>1050.949951171875</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1791.699951171875</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1652.650024414062</v>
+      </c>
+      <c r="H629" t="n">
+        <v>38120.89978027344</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J629"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -19968,6 +19968,64 @@
         <v>178.3886244574866</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="10" t="n">
+        <v>45580</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1959.300048828125</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1870.099975585938</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1056.650024414062</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1790.25</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1676.150024414062</v>
+      </c>
+      <c r="H630" t="n">
+        <v>38282.55041503906</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" t="n">
+        <v>178.3886244574866</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="10" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1920.099975585938</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1865.25</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1077.650024414062</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1761.449951171875</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1704.550048828125</v>
+      </c>
+      <c r="H631" t="n">
+        <v>38161.5</v>
+      </c>
+      <c r="I631" t="n">
+        <v>-0.00316202587671663</v>
+      </c>
+      <c r="J631" t="n">
+        <v>177.8245550108401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -483,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J631"/>
+  <dimension ref="A1:J632"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
       <selection activeCell="A594" sqref="A594"/>
@@ -20026,6 +20026,35 @@
         <v>177.8245550108401</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="10" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1968.099975585938</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1867.800048828125</v>
+      </c>
+      <c r="E632" t="n">
+        <v>1059.900024414062</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1792.199951171875</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1685.050048828125</v>
+      </c>
+      <c r="H632" t="n">
+        <v>38373.50024414062</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" t="n">
+        <v>177.8245550108401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J631"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
       <selection activeCell="F574" sqref="F574"/>
@@ -20008,6 +20008,35 @@
         <v>177.8342593943166</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="13" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1852.75</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1843.599975585938</v>
+      </c>
+      <c r="E631" t="n">
+        <v>1052.75</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1726.050048828125</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1675.900024414062</v>
+      </c>
+      <c r="H631" t="n">
+        <v>37286.45007324219</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" t="n">
+        <v>177.8342593943166</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NAV/IT_Stocks.xlsx
+++ b/NAV/IT_Stocks.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1160" yWindow="1340" windowWidth="27640" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -18,8 +18,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -108,7 +108,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -124,7 +124,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J702"/>
+  <dimension ref="A1:J761"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
       <selection activeCell="H658" sqref="H658"/>
@@ -20848,7 +20849,7 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" s="13" t="n">
+      <c r="A659" s="14" t="n">
         <v>45623</v>
       </c>
       <c r="C659" t="n">
@@ -20877,7 +20878,7 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" s="13" t="n">
+      <c r="A660" s="14" t="n">
         <v>45624</v>
       </c>
       <c r="C660" t="n">
@@ -20906,7 +20907,7 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" s="13" t="n">
+      <c r="A661" s="14" t="n">
         <v>45625</v>
       </c>
       <c r="C661" t="n">
@@ -20935,7 +20936,7 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="13" t="n">
+      <c r="A662" s="14" t="n">
         <v>45628</v>
       </c>
       <c r="C662" t="n">
@@ -20964,7 +20965,7 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" s="13" t="n">
+      <c r="A663" s="14" t="n">
         <v>45629</v>
       </c>
       <c r="C663" t="n">
@@ -20993,7 +20994,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" s="13" t="n">
+      <c r="A664" s="14" t="n">
         <v>45630</v>
       </c>
       <c r="C664" t="n">
@@ -21022,7 +21023,7 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" s="13" t="n">
+      <c r="A665" s="14" t="n">
         <v>45631</v>
       </c>
       <c r="C665" t="n">
@@ -21051,7 +21052,7 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" s="13" t="n">
+      <c r="A666" s="14" t="n">
         <v>45632</v>
       </c>
       <c r="C666" t="n">
@@ -21080,7 +21081,7 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" s="13" t="n">
+      <c r="A667" s="14" t="n">
         <v>45635</v>
       </c>
       <c r="C667" t="n">
@@ -21109,7 +21110,7 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" s="13" t="n">
+      <c r="A668" s="14" t="n">
         <v>45636</v>
       </c>
       <c r="C668" t="n">
@@ -21138,7 +21139,7 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" s="13" t="n">
+      <c r="A669" s="14" t="n">
         <v>45637</v>
       </c>
       <c r="C669" t="n">
@@ -21167,7 +21168,7 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" s="13" t="n">
+      <c r="A670" s="14" t="n">
         <v>45638</v>
       </c>
       <c r="C670" t="n">
@@ -21196,7 +21197,7 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" s="13" t="n">
+      <c r="A671" s="14" t="n">
         <v>45639</v>
       </c>
       <c r="C671" t="n">
@@ -21225,7 +21226,7 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" s="13" t="n">
+      <c r="A672" s="14" t="n">
         <v>45642</v>
       </c>
       <c r="C672" t="n">
@@ -21254,7 +21255,7 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" s="13" t="n">
+      <c r="A673" s="14" t="n">
         <v>45643</v>
       </c>
       <c r="C673" t="n">
@@ -21283,7 +21284,7 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" s="13" t="n">
+      <c r="A674" s="14" t="n">
         <v>45644</v>
       </c>
       <c r="C674" t="n">
@@ -21312,7 +21313,7 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" s="13" t="n">
+      <c r="A675" s="14" t="n">
         <v>45645</v>
       </c>
       <c r="C675" t="n">
@@ -21341,7 +21342,7 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" s="13" t="n">
+      <c r="A676" s="14" t="n">
         <v>45646</v>
       </c>
       <c r="C676" t="n">
@@ -21370,7 +21371,7 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" s="13" t="n">
+      <c r="A677" s="14" t="n">
         <v>45649</v>
       </c>
       <c r="C677" t="n">
@@ -21399,7 +21400,7 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" s="13" t="n">
+      <c r="A678" s="14" t="n">
         <v>45650</v>
       </c>
       <c r="C678" t="n">
@@ -21428,7 +21429,7 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" s="13" t="n">
+      <c r="A679" s="14" t="n">
         <v>45652</v>
       </c>
       <c r="C679" t="n">
@@ -21457,7 +21458,7 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" s="13" t="n">
+      <c r="A680" s="14" t="n">
         <v>45653</v>
       </c>
       <c r="C680" t="n">
@@ -21486,7 +21487,7 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" s="13" t="n">
+      <c r="A681" s="14" t="n">
         <v>45656</v>
       </c>
       <c r="C681" t="n">
@@ -21515,7 +21516,7 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" s="13" t="n">
+      <c r="A682" s="14" t="n">
         <v>45657</v>
       </c>
       <c r="C682" t="n">
@@ -21544,7 +21545,7 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" s="13" t="n">
+      <c r="A683" s="14" t="n">
         <v>45658</v>
       </c>
       <c r="C683" t="n">
@@ -21573,7 +21574,7 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" s="13" t="n">
+      <c r="A684" s="14" t="n">
         <v>45659</v>
       </c>
       <c r="C684" t="n">
@@ -21602,7 +21603,7 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" s="13" t="n">
+      <c r="A685" s="14" t="n">
         <v>45660</v>
       </c>
       <c r="C685" t="n">
@@ -21631,7 +21632,7 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" s="13" t="n">
+      <c r="A686" s="14" t="n">
         <v>45663</v>
       </c>
       <c r="C686" t="n">
@@ -21660,7 +21661,7 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="13" t="n">
+      <c r="A687" s="14" t="n">
         <v>45664</v>
       </c>
       <c r="C687" t="n">
@@ -21689,7 +21690,7 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" s="13" t="n">
+      <c r="A688" s="14" t="n">
         <v>45665</v>
       </c>
       <c r="C688" t="n">
@@ -21718,7 +21719,7 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" s="13" t="n">
+      <c r="A689" s="14" t="n">
         <v>45666</v>
       </c>
       <c r="C689" t="n">
@@ -21747,7 +21748,7 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" s="13" t="n">
+      <c r="A690" s="14" t="n">
         <v>45667</v>
       </c>
       <c r="C690" t="n">
@@ -21776,7 +21777,7 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" s="13" t="n">
+      <c r="A691" s="14" t="n">
         <v>45670</v>
       </c>
       <c r="C691" t="n">
@@ -21805,7 +21806,7 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" s="13" t="n">
+      <c r="A692" s="14" t="n">
         <v>45671</v>
       </c>
       <c r="C692" t="n">
@@ -21834,7 +21835,7 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" s="13" t="n">
+      <c r="A693" s="14" t="n">
         <v>45672</v>
       </c>
       <c r="C693" t="n">
@@ -21863,7 +21864,7 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="13" t="n">
+      <c r="A694" s="14" t="n">
         <v>45673</v>
       </c>
       <c r="C694" t="n">
@@ -21892,7 +21893,7 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="13" t="n">
+      <c r="A695" s="14" t="n">
         <v>45674</v>
       </c>
       <c r="C695" t="n">
@@ -21921,7 +21922,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" s="13" t="n">
+      <c r="A696" s="14" t="n">
         <v>45677</v>
       </c>
       <c r="C696" t="n">
@@ -21950,7 +21951,7 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" s="13" t="n">
+      <c r="A697" s="14" t="n">
         <v>45678</v>
       </c>
       <c r="C697" t="n">
@@ -21979,7 +21980,7 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" s="13" t="n">
+      <c r="A698" s="14" t="n">
         <v>45679</v>
       </c>
       <c r="C698" t="n">
@@ -22008,7 +22009,7 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" s="13" t="n">
+      <c r="A699" s="14" t="n">
         <v>45680</v>
       </c>
       <c r="C699" t="n">
@@ -22037,7 +22038,7 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" s="13" t="n">
+      <c r="A700" s="14" t="n">
         <v>45681</v>
       </c>
       <c r="C700" t="n">
@@ -22066,7 +22067,7 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" s="13" t="n">
+      <c r="A701" s="14" t="n">
         <v>45684</v>
       </c>
       <c r="C701" t="n">
@@ -22095,7 +22096,7 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" s="13" t="n">
+      <c r="A702" s="14" t="n">
         <v>45685</v>
       </c>
       <c r="C702" t="n">
@@ -22121,6 +22122,1717 @@
       </c>
       <c r="J702" t="n">
         <v>153.6286048250196</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="14" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1881.25</v>
+      </c>
+      <c r="D703" t="n">
+        <v>1719</v>
+      </c>
+      <c r="E703" t="n">
+        <v>781.4000244140625</v>
+      </c>
+      <c r="F703" t="n">
+        <v>1370.050048828125</v>
+      </c>
+      <c r="G703" t="n">
+        <v>312.4500122070312</v>
+      </c>
+      <c r="H703" t="n">
+        <v>31408.3505859375</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.03965359206870579</v>
+      </c>
+      <c r="J703" t="n">
+        <v>159.7205308508353</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="14" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1859.949951171875</v>
+      </c>
+      <c r="D704" t="n">
+        <v>1713.099975585938</v>
+      </c>
+      <c r="E704" t="n">
+        <v>777.1500244140625</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1432.949951171875</v>
+      </c>
+      <c r="G704" t="n">
+        <v>309</v>
+      </c>
+      <c r="H704" t="n">
+        <v>31541.29968261719</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.00423292195226619</v>
+      </c>
+      <c r="J704" t="n">
+        <v>160.3966153921014</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="14" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C705" t="n">
+        <v>1879.800048828125</v>
+      </c>
+      <c r="D705" t="n">
+        <v>1725.449951171875</v>
+      </c>
+      <c r="E705" t="n">
+        <v>787.5999755859375</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1409.199951171875</v>
+      </c>
+      <c r="G705" t="n">
+        <v>311.8999938964844</v>
+      </c>
+      <c r="H705" t="n">
+        <v>31674.39947509766</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.004219857577835378</v>
+      </c>
+      <c r="J705" t="n">
+        <v>161.0734662650229</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="14" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1851.349975585938</v>
+      </c>
+      <c r="D706" t="n">
+        <v>1694</v>
+      </c>
+      <c r="E706" t="n">
+        <v>775.5499877929688</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1416.449951171875</v>
+      </c>
+      <c r="G706" t="n">
+        <v>304.7999877929688</v>
+      </c>
+      <c r="H706" t="n">
+        <v>31291.59942626953</v>
+      </c>
+      <c r="I706" t="n">
+        <v>-0.01208547139556921</v>
+      </c>
+      <c r="J706" t="n">
+        <v>159.1268174958918</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="14" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1863.300048828125</v>
+      </c>
+      <c r="D707" t="n">
+        <v>1692</v>
+      </c>
+      <c r="E707" t="n">
+        <v>768.25</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1413.599975585938</v>
+      </c>
+      <c r="G707" t="n">
+        <v>313.6000061035156</v>
+      </c>
+      <c r="H707" t="n">
+        <v>31339.45013427734</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.00152918703054985</v>
+      </c>
+      <c r="J707" t="n">
+        <v>159.3701521614192</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="14" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C708" t="n">
+        <v>1898.800048828125</v>
+      </c>
+      <c r="D708" t="n">
+        <v>1732.550048828125</v>
+      </c>
+      <c r="E708" t="n">
+        <v>769.75</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1419.800048828125</v>
+      </c>
+      <c r="G708" t="n">
+        <v>316.25</v>
+      </c>
+      <c r="H708" t="n">
+        <v>31714.65063476562</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.01197214689092161</v>
+      </c>
+      <c r="J708" t="n">
+        <v>161.2781550331242</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="14" t="n">
+        <v>45693</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1897.050048828125</v>
+      </c>
+      <c r="D709" t="n">
+        <v>1712.849975585938</v>
+      </c>
+      <c r="E709" t="n">
+        <v>794.5</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1431.349975585938</v>
+      </c>
+      <c r="G709" t="n">
+        <v>317.1000061035156</v>
+      </c>
+      <c r="H709" t="n">
+        <v>31917.85003662109</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.006407114623319275</v>
+      </c>
+      <c r="J709" t="n">
+        <v>162.3114826586589</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="14" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C710" t="n">
+        <v>1915.650024414062</v>
+      </c>
+      <c r="D710" t="n">
+        <v>1723.5</v>
+      </c>
+      <c r="E710" t="n">
+        <v>785.2000122070312</v>
+      </c>
+      <c r="F710" t="n">
+        <v>1434.550048828125</v>
+      </c>
+      <c r="G710" t="n">
+        <v>317.9500122070312</v>
+      </c>
+      <c r="H710" t="n">
+        <v>31975.65057373047</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.001810915742854149</v>
+      </c>
+      <c r="J710" t="n">
+        <v>162.6054150778515</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="14" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1903.650024414062</v>
+      </c>
+      <c r="D711" t="n">
+        <v>1725.650024414062</v>
+      </c>
+      <c r="E711" t="n">
+        <v>776.5999755859375</v>
+      </c>
+      <c r="F711" t="n">
+        <v>1447.800048828125</v>
+      </c>
+      <c r="G711" t="n">
+        <v>318</v>
+      </c>
+      <c r="H711" t="n">
+        <v>31925.60021972656</v>
+      </c>
+      <c r="I711" t="n">
+        <v>-0.001565264603092236</v>
+      </c>
+      <c r="J711" t="n">
+        <v>162.350894577359</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="14" t="n">
+        <v>45698</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1880.300048828125</v>
+      </c>
+      <c r="D712" t="n">
+        <v>1733.849975585938</v>
+      </c>
+      <c r="E712" t="n">
+        <v>769.3499755859375</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1437.949951171875</v>
+      </c>
+      <c r="G712" t="n">
+        <v>319.0499877929688</v>
+      </c>
+      <c r="H712" t="n">
+        <v>31760.99951171875</v>
+      </c>
+      <c r="I712" t="n">
+        <v>-0.005155759230052223</v>
+      </c>
+      <c r="J712" t="n">
+        <v>161.5138524541346</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="14" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C713" t="n">
+        <v>1875.650024414062</v>
+      </c>
+      <c r="D713" t="n">
+        <v>1723.199951171875</v>
+      </c>
+      <c r="E713" t="n">
+        <v>746.7000122070312</v>
+      </c>
+      <c r="F713" t="n">
+        <v>1380.349975585938</v>
+      </c>
+      <c r="G713" t="n">
+        <v>313</v>
+      </c>
+      <c r="H713" t="n">
+        <v>31147.44989013672</v>
+      </c>
+      <c r="I713" t="n">
+        <v>-0.01931770507901213</v>
+      </c>
+      <c r="J713" t="n">
+        <v>158.3937754862505</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="14" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1863.150024414062</v>
+      </c>
+      <c r="D714" t="n">
+        <v>1717.300048828125</v>
+      </c>
+      <c r="E714" t="n">
+        <v>738.5499877929688</v>
+      </c>
+      <c r="F714" t="n">
+        <v>1353.150024414062</v>
+      </c>
+      <c r="G714" t="n">
+        <v>310.2000122070312</v>
+      </c>
+      <c r="H714" t="n">
+        <v>30836.50042724609</v>
+      </c>
+      <c r="I714" t="n">
+        <v>-0.009983143531409663</v>
+      </c>
+      <c r="J714" t="n">
+        <v>156.8125076910894</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="14" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1843.25</v>
+      </c>
+      <c r="D715" t="n">
+        <v>1703.099975585938</v>
+      </c>
+      <c r="E715" t="n">
+        <v>737.9000244140625</v>
+      </c>
+      <c r="F715" t="n">
+        <v>1340.349975585938</v>
+      </c>
+      <c r="G715" t="n">
+        <v>308.5499877929688</v>
+      </c>
+      <c r="H715" t="n">
+        <v>30613.74987792969</v>
+      </c>
+      <c r="I715" t="n">
+        <v>-0.007223600156637469</v>
+      </c>
+      <c r="J715" t="n">
+        <v>155.6797568359694</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="14" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1856.400024414062</v>
+      </c>
+      <c r="D716" t="n">
+        <v>1711.25</v>
+      </c>
+      <c r="E716" t="n">
+        <v>733.8499755859375</v>
+      </c>
+      <c r="F716" t="n">
+        <v>1342.650024414062</v>
+      </c>
+      <c r="G716" t="n">
+        <v>308.1000061035156</v>
+      </c>
+      <c r="H716" t="n">
+        <v>30669.50006103516</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.001821083118787111</v>
+      </c>
+      <c r="J716" t="n">
+        <v>155.9632626130802</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="14" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C717" t="n">
+        <v>1842.300048828125</v>
+      </c>
+      <c r="D717" t="n">
+        <v>1709.900024414062</v>
+      </c>
+      <c r="E717" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F717" t="n">
+        <v>1310.400024414062</v>
+      </c>
+      <c r="G717" t="n">
+        <v>305.3500061035156</v>
+      </c>
+      <c r="H717" t="n">
+        <v>30302.8505859375</v>
+      </c>
+      <c r="I717" t="n">
+        <v>-0.01195485659590113</v>
+      </c>
+      <c r="J717" t="n">
+        <v>154.098744174312</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="14" t="n">
+        <v>45706</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1851.949951171875</v>
+      </c>
+      <c r="D718" t="n">
+        <v>1725.5</v>
+      </c>
+      <c r="E718" t="n">
+        <v>721.2999877929688</v>
+      </c>
+      <c r="F718" t="n">
+        <v>1329.449951171875</v>
+      </c>
+      <c r="G718" t="n">
+        <v>312.2000122070312</v>
+      </c>
+      <c r="H718" t="n">
+        <v>30570.74957275391</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0.008840718996275844</v>
+      </c>
+      <c r="J718" t="n">
+        <v>155.4610878692361</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="14" t="n">
+        <v>45707</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1810.800048828125</v>
+      </c>
+      <c r="D719" t="n">
+        <v>1712.300048828125</v>
+      </c>
+      <c r="E719" t="n">
+        <v>729.6500244140625</v>
+      </c>
+      <c r="F719" t="n">
+        <v>1336.25</v>
+      </c>
+      <c r="G719" t="n">
+        <v>314.1000061035156</v>
+      </c>
+      <c r="H719" t="n">
+        <v>30481.50067138672</v>
+      </c>
+      <c r="I719" t="n">
+        <v>-0.002919421427819039</v>
+      </c>
+      <c r="J719" t="n">
+        <v>155.0072314381185</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="14" t="n">
+        <v>45708</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1825.150024414062</v>
+      </c>
+      <c r="D720" t="n">
+        <v>1687.550048828125</v>
+      </c>
+      <c r="E720" t="n">
+        <v>748</v>
+      </c>
+      <c r="F720" t="n">
+        <v>1342.050048828125</v>
+      </c>
+      <c r="G720" t="n">
+        <v>313.2999877929688</v>
+      </c>
+      <c r="H720" t="n">
+        <v>30626.05041503906</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0.004742212176844495</v>
+      </c>
+      <c r="J720" t="n">
+        <v>155.7423086185433</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="14" t="n">
+        <v>45709</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D721" t="n">
+        <v>1700.699951171875</v>
+      </c>
+      <c r="E721" t="n">
+        <v>742.5499877929688</v>
+      </c>
+      <c r="F721" t="n">
+        <v>1310.099975585938</v>
+      </c>
+      <c r="G721" t="n">
+        <v>306.3500061035156</v>
+      </c>
+      <c r="H721" t="n">
+        <v>30359.74963378906</v>
+      </c>
+      <c r="I721" t="n">
+        <v>-0.008695237474017603</v>
+      </c>
+      <c r="J721" t="n">
+        <v>154.3880922603534</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="14" t="n">
+        <v>45712</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1764.099975585938</v>
+      </c>
+      <c r="D722" t="n">
+        <v>1644.050048828125</v>
+      </c>
+      <c r="E722" t="n">
+        <v>733.1500244140625</v>
+      </c>
+      <c r="F722" t="n">
+        <v>1281.699951171875</v>
+      </c>
+      <c r="G722" t="n">
+        <v>295.0499877929688</v>
+      </c>
+      <c r="H722" t="n">
+        <v>29589.94995117188</v>
+      </c>
+      <c r="I722" t="n">
+        <v>-0.02535592987105646</v>
+      </c>
+      <c r="J722" t="n">
+        <v>150.4734386200737</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="14" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1767.699951171875</v>
+      </c>
+      <c r="D723" t="n">
+        <v>1636.099975585938</v>
+      </c>
+      <c r="E723" t="n">
+        <v>731.1500244140625</v>
+      </c>
+      <c r="F723" t="n">
+        <v>1285.5</v>
+      </c>
+      <c r="G723" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="H723" t="n">
+        <v>29536.0498046875</v>
+      </c>
+      <c r="I723" t="n">
+        <v>-0.001821569369779902</v>
+      </c>
+      <c r="J723" t="n">
+        <v>150.1993408133179</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="14" t="n">
+        <v>45715</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1764.300048828125</v>
+      </c>
+      <c r="D724" t="n">
+        <v>1629.199951171875</v>
+      </c>
+      <c r="E724" t="n">
+        <v>715.25</v>
+      </c>
+      <c r="F724" t="n">
+        <v>1251.949951171875</v>
+      </c>
+      <c r="G724" t="n">
+        <v>294.5</v>
+      </c>
+      <c r="H724" t="n">
+        <v>29215.99975585938</v>
+      </c>
+      <c r="I724" t="n">
+        <v>-0.01083591241701291</v>
+      </c>
+      <c r="J724" t="n">
+        <v>148.5717939111717</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="14" t="n">
+        <v>45716</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1687.699951171875</v>
+      </c>
+      <c r="D725" t="n">
+        <v>1575.050048828125</v>
+      </c>
+      <c r="E725" t="n">
+        <v>671.75</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1197.400024414062</v>
+      </c>
+      <c r="G725" t="n">
+        <v>277.6499938964844</v>
+      </c>
+      <c r="H725" t="n">
+        <v>27860.25006103516</v>
+      </c>
+      <c r="I725" t="n">
+        <v>-0.04640435741215113</v>
+      </c>
+      <c r="J725" t="n">
+        <v>141.6774152851532</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="14" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1708.599975585938</v>
+      </c>
+      <c r="D726" t="n">
+        <v>1572.400024414062</v>
+      </c>
+      <c r="E726" t="n">
+        <v>666.25</v>
+      </c>
+      <c r="F726" t="n">
+        <v>1205.050048828125</v>
+      </c>
+      <c r="G726" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="H726" t="n">
+        <v>27981.00012207031</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0.004334134143470418</v>
+      </c>
+      <c r="J726" t="n">
+        <v>142.2914642080993</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="14" t="n">
+        <v>45720</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1688.300048828125</v>
+      </c>
+      <c r="D727" t="n">
+        <v>1535.5</v>
+      </c>
+      <c r="E727" t="n">
+        <v>647</v>
+      </c>
+      <c r="F727" t="n">
+        <v>1214.650024414062</v>
+      </c>
+      <c r="G727" t="n">
+        <v>280</v>
+      </c>
+      <c r="H727" t="n">
+        <v>27591.45031738281</v>
+      </c>
+      <c r="I727" t="n">
+        <v>-0.01392193999456933</v>
+      </c>
+      <c r="J727" t="n">
+        <v>140.3104909816547</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="14" t="n">
+        <v>45721</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1711.5</v>
+      </c>
+      <c r="D728" t="n">
+        <v>1572.949951171875</v>
+      </c>
+      <c r="E728" t="n">
+        <v>674.4000244140625</v>
+      </c>
+      <c r="F728" t="n">
+        <v>1281.75</v>
+      </c>
+      <c r="G728" t="n">
+        <v>285.1000061035156</v>
+      </c>
+      <c r="H728" t="n">
+        <v>28467.15008544922</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.03173808400766483</v>
+      </c>
+      <c r="J728" t="n">
+        <v>144.7636771315871</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="14" t="n">
+        <v>45722</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1715.849975585938</v>
+      </c>
+      <c r="D729" t="n">
+        <v>1585.449951171875</v>
+      </c>
+      <c r="E729" t="n">
+        <v>670.5999755859375</v>
+      </c>
+      <c r="F729" t="n">
+        <v>1326.800048828125</v>
+      </c>
+      <c r="G729" t="n">
+        <v>285.8999938964844</v>
+      </c>
+      <c r="H729" t="n">
+        <v>28733.59967041016</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.009359896728725624</v>
+      </c>
+      <c r="J729" t="n">
+        <v>146.1186501996094</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="14" t="n">
+        <v>45723</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D730" t="n">
+        <v>1557.949951171875</v>
+      </c>
+      <c r="E730" t="n">
+        <v>671.5499877929688</v>
+      </c>
+      <c r="F730" t="n">
+        <v>1305.400024414062</v>
+      </c>
+      <c r="G730" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="H730" t="n">
+        <v>28394.74969482422</v>
+      </c>
+      <c r="I730" t="n">
+        <v>-0.01179281327340566</v>
+      </c>
+      <c r="J730" t="n">
+        <v>144.3955002420433</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="14" t="n">
+        <v>45726</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1701.449951171875</v>
+      </c>
+      <c r="D731" t="n">
+        <v>1549.300048828125</v>
+      </c>
+      <c r="E731" t="n">
+        <v>653.7000122070312</v>
+      </c>
+      <c r="F731" t="n">
+        <v>1254</v>
+      </c>
+      <c r="G731" t="n">
+        <v>280.8999938964844</v>
+      </c>
+      <c r="H731" t="n">
+        <v>27965.30004882812</v>
+      </c>
+      <c r="I731" t="n">
+        <v>-0.01512426242920442</v>
+      </c>
+      <c r="J731" t="n">
+        <v>142.2116248027864</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="14" t="n">
+        <v>45727</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1661.599975585938</v>
+      </c>
+      <c r="D732" t="n">
+        <v>1567.849975585938</v>
+      </c>
+      <c r="E732" t="n">
+        <v>646.7999877929688</v>
+      </c>
+      <c r="F732" t="n">
+        <v>1268.900024414062</v>
+      </c>
+      <c r="G732" t="n">
+        <v>277.75</v>
+      </c>
+      <c r="H732" t="n">
+        <v>27860.99981689453</v>
+      </c>
+      <c r="I732" t="n">
+        <v>-0.003729630354456519</v>
+      </c>
+      <c r="J732" t="n">
+        <v>141.6812280101653</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="14" t="n">
+        <v>45728</v>
+      </c>
+      <c r="C733" t="n">
+        <v>1590.849975585938</v>
+      </c>
+      <c r="D733" t="n">
+        <v>1540.599975585938</v>
+      </c>
+      <c r="E733" t="n">
+        <v>642.0999755859375</v>
+      </c>
+      <c r="F733" t="n">
+        <v>1233.900024414062</v>
+      </c>
+      <c r="G733" t="n">
+        <v>268.5499877929688</v>
+      </c>
+      <c r="H733" t="n">
+        <v>27159.69958496094</v>
+      </c>
+      <c r="I733" t="n">
+        <v>-0.02517139501606596</v>
+      </c>
+      <c r="J733" t="n">
+        <v>138.1149138535602</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="14" t="n">
+        <v>45729</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1579.849975585938</v>
+      </c>
+      <c r="D734" t="n">
+        <v>1534.75</v>
+      </c>
+      <c r="E734" t="n">
+        <v>636.7999877929688</v>
+      </c>
+      <c r="F734" t="n">
+        <v>1206.449951171875</v>
+      </c>
+      <c r="G734" t="n">
+        <v>264</v>
+      </c>
+      <c r="H734" t="n">
+        <v>26861.84954833984</v>
+      </c>
+      <c r="I734" t="n">
+        <v>-0.01096661749476866</v>
+      </c>
+      <c r="J734" t="n">
+        <v>136.6002604230052</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="14" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1590.050048828125</v>
+      </c>
+      <c r="D735" t="n">
+        <v>1545.150024414062</v>
+      </c>
+      <c r="E735" t="n">
+        <v>628.4500122070312</v>
+      </c>
+      <c r="F735" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="G735" t="n">
+        <v>259.8500061035156</v>
+      </c>
+      <c r="H735" t="n">
+        <v>27046.60046386719</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0.006877818118773657</v>
+      </c>
+      <c r="J735" t="n">
+        <v>137.5397721691718</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="14" t="n">
+        <v>45734</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1590.050048828125</v>
+      </c>
+      <c r="D736" t="n">
+        <v>1545.150024414062</v>
+      </c>
+      <c r="E736" t="n">
+        <v>648.0499877929688</v>
+      </c>
+      <c r="F736" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="G736" t="n">
+        <v>259.8500061035156</v>
+      </c>
+      <c r="H736" t="n">
+        <v>27223.00024414062</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0.00652206847618791</v>
+      </c>
+      <c r="J736" t="n">
+        <v>138.4368159814584</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="14" t="n">
+        <v>45735</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1586.550048828125</v>
+      </c>
+      <c r="D737" t="n">
+        <v>1544.449951171875</v>
+      </c>
+      <c r="E737" t="n">
+        <v>671.2999877929688</v>
+      </c>
+      <c r="F737" t="n">
+        <v>1263.099975585938</v>
+      </c>
+      <c r="G737" t="n">
+        <v>265.7000122070312</v>
+      </c>
+      <c r="H737" t="n">
+        <v>27538.19989013672</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0.01157843158980745</v>
+      </c>
+      <c r="J737" t="n">
+        <v>140.0396971848105</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="14" t="n">
+        <v>45736</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1615.550048828125</v>
+      </c>
+      <c r="D738" t="n">
+        <v>1562</v>
+      </c>
+      <c r="E738" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="F738" t="n">
+        <v>1281.599975585938</v>
+      </c>
+      <c r="G738" t="n">
+        <v>268</v>
+      </c>
+      <c r="H738" t="n">
+        <v>27791.75018310547</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0.009207221023170923</v>
+      </c>
+      <c r="J738" t="n">
+        <v>141.329073628809</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="14" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1592.550048828125</v>
+      </c>
+      <c r="D739" t="n">
+        <v>1566.699951171875</v>
+      </c>
+      <c r="E739" t="n">
+        <v>685.75</v>
+      </c>
+      <c r="F739" t="n">
+        <v>1323.400024414062</v>
+      </c>
+      <c r="G739" t="n">
+        <v>264.2999877929688</v>
+      </c>
+      <c r="H739" t="n">
+        <v>28068.75</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0.009966979951587169</v>
+      </c>
+      <c r="J739" t="n">
+        <v>142.7376976722437</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="14" t="n">
+        <v>45740</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1592.75</v>
+      </c>
+      <c r="D740" t="n">
+        <v>1604.150024414062</v>
+      </c>
+      <c r="E740" t="n">
+        <v>698.7000122070312</v>
+      </c>
+      <c r="F740" t="n">
+        <v>1384.550048828125</v>
+      </c>
+      <c r="G740" t="n">
+        <v>269.3999938964844</v>
+      </c>
+      <c r="H740" t="n">
+        <v>28692.650390625</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.02222758016032064</v>
+      </c>
+      <c r="J740" t="n">
+        <v>145.9104112891531</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="14" t="n">
+        <v>45741</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1628.449951171875</v>
+      </c>
+      <c r="D741" t="n">
+        <v>1624.900024414062</v>
+      </c>
+      <c r="E741" t="n">
+        <v>698.2999877929688</v>
+      </c>
+      <c r="F741" t="n">
+        <v>1342.849975585938</v>
+      </c>
+      <c r="G741" t="n">
+        <v>271</v>
+      </c>
+      <c r="H741" t="n">
+        <v>28722.34967041016</v>
+      </c>
+      <c r="I741" t="n">
+        <v>0.001035083179170515</v>
+      </c>
+      <c r="J741" t="n">
+        <v>146.0614407015444</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="14" t="n">
+        <v>45742</v>
+      </c>
+      <c r="C742" t="n">
+        <v>1599.449951171875</v>
+      </c>
+      <c r="D742" t="n">
+        <v>1633.400024414062</v>
+      </c>
+      <c r="E742" t="n">
+        <v>700.0999755859375</v>
+      </c>
+      <c r="F742" t="n">
+        <v>1366.650024414062</v>
+      </c>
+      <c r="G742" t="n">
+        <v>267.3999938964844</v>
+      </c>
+      <c r="H742" t="n">
+        <v>28739.54974365234</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0.0005988393512215703</v>
+      </c>
+      <c r="J742" t="n">
+        <v>146.1489080399326</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="14" t="n">
+        <v>45743</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1603.550048828125</v>
+      </c>
+      <c r="D743" t="n">
+        <v>1630.150024414062</v>
+      </c>
+      <c r="E743" t="n">
+        <v>687.1500244140625</v>
+      </c>
+      <c r="F743" t="n">
+        <v>1334.150024414062</v>
+      </c>
+      <c r="G743" t="n">
+        <v>272.2000122070312</v>
+      </c>
+      <c r="H743" t="n">
+        <v>28511.90075683594</v>
+      </c>
+      <c r="I743" t="n">
+        <v>-0.007921104848439274</v>
+      </c>
+      <c r="J743" t="n">
+        <v>144.9912472158634</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="14" t="n">
+        <v>45744</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1570.650024414062</v>
+      </c>
+      <c r="D744" t="n">
+        <v>1592.5</v>
+      </c>
+      <c r="E744" t="n">
+        <v>679.9000244140625</v>
+      </c>
+      <c r="F744" t="n">
+        <v>1307.449951171875</v>
+      </c>
+      <c r="G744" t="n">
+        <v>262.25</v>
+      </c>
+      <c r="H744" t="n">
+        <v>27931.45007324219</v>
+      </c>
+      <c r="I744" t="n">
+        <v>-0.02035818967469514</v>
+      </c>
+      <c r="J744" t="n">
+        <v>142.0394879038722</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="14" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1526.5</v>
+      </c>
+      <c r="D745" t="n">
+        <v>1530.349975585938</v>
+      </c>
+      <c r="E745" t="n">
+        <v>687.0499877929688</v>
+      </c>
+      <c r="F745" t="n">
+        <v>1270.599975585938</v>
+      </c>
+      <c r="G745" t="n">
+        <v>262.6000061035156</v>
+      </c>
+      <c r="H745" t="n">
+        <v>27389.84973144531</v>
+      </c>
+      <c r="I745" t="n">
+        <v>-0.01939034100903047</v>
+      </c>
+      <c r="J745" t="n">
+        <v>139.285293796668</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="14" t="n">
+        <v>45749</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1550.150024414062</v>
+      </c>
+      <c r="D746" t="n">
+        <v>1527.550048828125</v>
+      </c>
+      <c r="E746" t="n">
+        <v>687.8499755859375</v>
+      </c>
+      <c r="F746" t="n">
+        <v>1311.949951171875</v>
+      </c>
+      <c r="G746" t="n">
+        <v>263.6000061035156</v>
+      </c>
+      <c r="H746" t="n">
+        <v>27697.19989013672</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.01122131598767219</v>
+      </c>
+      <c r="J746" t="n">
+        <v>140.8482580907962</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="14" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1496.5</v>
+      </c>
+      <c r="D747" t="n">
+        <v>1470.099975585938</v>
+      </c>
+      <c r="E747" t="n">
+        <v>680.0499877929688</v>
+      </c>
+      <c r="F747" t="n">
+        <v>1211.099975585938</v>
+      </c>
+      <c r="G747" t="n">
+        <v>256.3500061035156</v>
+      </c>
+      <c r="H747" t="n">
+        <v>26605.84973144531</v>
+      </c>
+      <c r="I747" t="n">
+        <v>-0.03940290581792884</v>
+      </c>
+      <c r="J747" t="n">
+        <v>135.2984274426252</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="14" t="n">
+        <v>45751</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1451.650024414062</v>
+      </c>
+      <c r="D748" t="n">
+        <v>1422.099975585938</v>
+      </c>
+      <c r="E748" t="n">
+        <v>648.7000122070312</v>
+      </c>
+      <c r="F748" t="n">
+        <v>1134</v>
+      </c>
+      <c r="G748" t="n">
+        <v>246.3000030517578</v>
+      </c>
+      <c r="H748" t="n">
+        <v>25466.30014038086</v>
+      </c>
+      <c r="I748" t="n">
+        <v>-0.04283079106913941</v>
+      </c>
+      <c r="J748" t="n">
+        <v>129.503488764847</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="14" t="n">
+        <v>45754</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1396.75</v>
+      </c>
+      <c r="D749" t="n">
+        <v>1374.099975585938</v>
+      </c>
+      <c r="E749" t="n">
+        <v>608.4000244140625</v>
+      </c>
+      <c r="F749" t="n">
+        <v>1065.300048828125</v>
+      </c>
+      <c r="G749" t="n">
+        <v>242.8999938964844</v>
+      </c>
+      <c r="H749" t="n">
+        <v>24314.50030517578</v>
+      </c>
+      <c r="I749" t="n">
+        <v>-0.04522839316492296</v>
+      </c>
+      <c r="J749" t="n">
+        <v>123.6462540587614</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="14" t="n">
+        <v>45755</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1428.800048828125</v>
+      </c>
+      <c r="D750" t="n">
+        <v>1403.349975585938</v>
+      </c>
+      <c r="E750" t="n">
+        <v>615.8499755859375</v>
+      </c>
+      <c r="F750" t="n">
+        <v>1113.199951171875</v>
+      </c>
+      <c r="G750" t="n">
+        <v>247.25</v>
+      </c>
+      <c r="H750" t="n">
+        <v>24909.74963378906</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.02448124868462017</v>
+      </c>
+      <c r="J750" t="n">
+        <v>126.6732687532956</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="14" t="n">
+        <v>45756</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1403.699951171875</v>
+      </c>
+      <c r="D751" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E751" t="n">
+        <v>613.1500244140625</v>
+      </c>
+      <c r="F751" t="n">
+        <v>1078.349975585938</v>
+      </c>
+      <c r="G751" t="n">
+        <v>236.6499938964844</v>
+      </c>
+      <c r="H751" t="n">
+        <v>24411.39984130859</v>
+      </c>
+      <c r="I751" t="n">
+        <v>-0.02000621442635768</v>
+      </c>
+      <c r="J751" t="n">
+        <v>124.1390161765296</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="14" t="n">
+        <v>45758</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1409.449951171875</v>
+      </c>
+      <c r="D752" t="n">
+        <v>1390.550048828125</v>
+      </c>
+      <c r="E752" t="n">
+        <v>632.0499877929688</v>
+      </c>
+      <c r="F752" t="n">
+        <v>1118.949951171875</v>
+      </c>
+      <c r="G752" t="n">
+        <v>239.75</v>
+      </c>
+      <c r="H752" t="n">
+        <v>24880.69964599609</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.01922461668475718</v>
+      </c>
+      <c r="J752" t="n">
+        <v>126.5255411781462</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="14" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1426</v>
+      </c>
+      <c r="D753" t="n">
+        <v>1426.5</v>
+      </c>
+      <c r="E753" t="n">
+        <v>650.4500122070312</v>
+      </c>
+      <c r="F753" t="n">
+        <v>1151.800048828125</v>
+      </c>
+      <c r="G753" t="n">
+        <v>244</v>
+      </c>
+      <c r="H753" t="n">
+        <v>25463.05035400391</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0.02340572075116572</v>
+      </c>
+      <c r="J753" t="n">
+        <v>129.486962662852</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="14" t="n">
+        <v>45763</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1413.099975585938</v>
+      </c>
+      <c r="D754" t="n">
+        <v>1431.699951171875</v>
+      </c>
+      <c r="E754" t="n">
+        <v>653.7999877929688</v>
+      </c>
+      <c r="F754" t="n">
+        <v>1149.199951171875</v>
+      </c>
+      <c r="G754" t="n">
+        <v>247.6499938964844</v>
+      </c>
+      <c r="H754" t="n">
+        <v>25485.89929199219</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.0008973370303486988</v>
+      </c>
+      <c r="J754" t="n">
+        <v>129.6031561093968</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="14" t="n">
+        <v>45764</v>
+      </c>
+      <c r="C755" t="n">
+        <v>1419.5</v>
+      </c>
+      <c r="D755" t="n">
+        <v>1438</v>
+      </c>
+      <c r="E755" t="n">
+        <v>651.5</v>
+      </c>
+      <c r="F755" t="n">
+        <v>1136.199951171875</v>
+      </c>
+      <c r="G755" t="n">
+        <v>236.8999938964844</v>
+      </c>
+      <c r="H755" t="n">
+        <v>25343.49969482422</v>
+      </c>
+      <c r="I755" t="n">
+        <v>-0.005587387579951377</v>
+      </c>
+      <c r="J755" t="n">
+        <v>128.8790130446286</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="14" t="n">
+        <v>45768</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1451</v>
+      </c>
+      <c r="D756" t="n">
+        <v>1482</v>
+      </c>
+      <c r="E756" t="n">
+        <v>683.9500122070312</v>
+      </c>
+      <c r="F756" t="n">
+        <v>1166.099975585938</v>
+      </c>
+      <c r="G756" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="H756" t="n">
+        <v>26102.54995727539</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0.02995049111572342</v>
+      </c>
+      <c r="J756" t="n">
+        <v>132.739002779825</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="14" t="n">
+        <v>45769</v>
+      </c>
+      <c r="C757" t="n">
+        <v>1422.800048828125</v>
+      </c>
+      <c r="D757" t="n">
+        <v>1479.900024414062</v>
+      </c>
+      <c r="E757" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F757" t="n">
+        <v>1165.599975585938</v>
+      </c>
+      <c r="G757" t="n">
+        <v>234.1499938964844</v>
+      </c>
+      <c r="H757" t="n">
+        <v>26132.05010986328</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0.001130163629077482</v>
+      </c>
+      <c r="J757" t="n">
+        <v>132.8890195729267</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="14" t="n">
+        <v>45770</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1474.900024414062</v>
+      </c>
+      <c r="D758" t="n">
+        <v>1594</v>
+      </c>
+      <c r="E758" t="n">
+        <v>720.5</v>
+      </c>
+      <c r="F758" t="n">
+        <v>1228.900024414062</v>
+      </c>
+      <c r="G758" t="n">
+        <v>243.6000061035156</v>
+      </c>
+      <c r="H758" t="n">
+        <v>27340.60028076172</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.0462478131573107</v>
+      </c>
+      <c r="J758" t="n">
+        <v>139.0348461207937</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="14" t="n">
+        <v>45771</v>
+      </c>
+      <c r="C759" t="n">
+        <v>1471.400024414062</v>
+      </c>
+      <c r="D759" t="n">
+        <v>1586.699951171875</v>
+      </c>
+      <c r="E759" t="n">
+        <v>717.2000122070312</v>
+      </c>
+      <c r="F759" t="n">
+        <v>1213.599975585938</v>
+      </c>
+      <c r="G759" t="n">
+        <v>242.75</v>
+      </c>
+      <c r="H759" t="n">
+        <v>27182.69989013672</v>
+      </c>
+      <c r="I759" t="n">
+        <v>-0.005775308113337475</v>
+      </c>
+      <c r="J759" t="n">
+        <v>138.2318770459556</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="14" t="n">
+        <v>45772</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1480.199951171875</v>
+      </c>
+      <c r="D760" t="n">
+        <v>1578.199951171875</v>
+      </c>
+      <c r="E760" t="n">
+        <v>693.2000122070312</v>
+      </c>
+      <c r="F760" t="n">
+        <v>1221</v>
+      </c>
+      <c r="G760" t="n">
+        <v>240.8999938964844</v>
+      </c>
+      <c r="H760" t="n">
+        <v>26986.39965820312</v>
+      </c>
+      <c r="I760" t="n">
+        <v>-0.007221513415774478</v>
+      </c>
+      <c r="J760" t="n">
+        <v>137.2336336913806</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="14" t="n">
+        <v>45775</v>
+      </c>
+      <c r="C761" t="n">
+        <v>1482.099975585938</v>
+      </c>
+      <c r="D761" t="n">
+        <v>1549.300048828125</v>
+      </c>
+      <c r="E761" t="n">
+        <v>705.5999755859375</v>
+      </c>
+      <c r="F761" t="n">
+        <v>1231.199951171875</v>
+      </c>
+      <c r="G761" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="H761" t="n">
+        <v>27036.99963378906</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0.001875017646918917</v>
+      </c>
+      <c r="J761" t="n">
+        <v>137.4909491763027</v>
       </c>
     </row>
   </sheetData>
